--- a/processed/combination_statistics.xlsx
+++ b/processed/combination_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:M631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>Min Score</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -530,6 +540,12 @@
       <c r="K2" t="n">
         <v>5.9</v>
       </c>
+      <c r="L2" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -571,6 +587,12 @@
       <c r="K3" t="n">
         <v>4.9</v>
       </c>
+      <c r="L3" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -612,6 +634,12 @@
       <c r="K4" t="n">
         <v>5.65</v>
       </c>
+      <c r="L4" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -653,6 +681,12 @@
       <c r="K5" t="n">
         <v>5.25</v>
       </c>
+      <c r="L5" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -694,6 +728,12 @@
       <c r="K6" t="n">
         <v>4.65</v>
       </c>
+      <c r="L6" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -735,6 +775,12 @@
       <c r="K7" t="n">
         <v>5.8</v>
       </c>
+      <c r="L7" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -776,6 +822,12 @@
       <c r="K8" t="n">
         <v>6.15</v>
       </c>
+      <c r="L8" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -817,6 +869,12 @@
       <c r="K9" t="n">
         <v>6.3</v>
       </c>
+      <c r="L9" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -858,6 +916,12 @@
       <c r="K10" t="n">
         <v>5.75</v>
       </c>
+      <c r="L10" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -899,6 +963,12 @@
       <c r="K11" t="n">
         <v>4.05</v>
       </c>
+      <c r="L11" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -940,6 +1010,12 @@
       <c r="K12" t="n">
         <v>8.550000000000001</v>
       </c>
+      <c r="L12" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -981,6 +1057,12 @@
       <c r="K13" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L13" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1022,6 +1104,12 @@
       <c r="K14" t="n">
         <v>6.5</v>
       </c>
+      <c r="L14" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1063,6 +1151,12 @@
       <c r="K15" t="n">
         <v>4</v>
       </c>
+      <c r="L15" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1104,6 +1198,12 @@
       <c r="K16" t="n">
         <v>7.3</v>
       </c>
+      <c r="L16" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1145,6 +1245,12 @@
       <c r="K17" t="n">
         <v>7.25</v>
       </c>
+      <c r="L17" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1186,6 +1292,12 @@
       <c r="K18" t="n">
         <v>7.100000000000001</v>
       </c>
+      <c r="L18" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1227,6 +1339,12 @@
       <c r="K19" t="n">
         <v>6.5</v>
       </c>
+      <c r="L19" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1268,6 +1386,12 @@
       <c r="K20" t="n">
         <v>4.75</v>
       </c>
+      <c r="L20" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1309,6 +1433,12 @@
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
+      <c r="L21" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1350,6 +1480,12 @@
       <c r="K22" t="n">
         <v>9.15</v>
       </c>
+      <c r="L22" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M22" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1391,6 +1527,12 @@
       <c r="K23" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="L23" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M23" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1432,6 +1574,12 @@
       <c r="K24" t="n">
         <v>9.5</v>
       </c>
+      <c r="L24" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1473,6 +1621,12 @@
       <c r="K25" t="n">
         <v>6</v>
       </c>
+      <c r="L25" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M25" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1514,6 +1668,12 @@
       <c r="K26" t="n">
         <v>5.2</v>
       </c>
+      <c r="L26" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M26" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1555,6 +1715,12 @@
       <c r="K27" t="n">
         <v>6.85</v>
       </c>
+      <c r="L27" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M27" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1596,6 +1762,12 @@
       <c r="K28" t="n">
         <v>10</v>
       </c>
+      <c r="L28" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M28" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1637,6 +1809,12 @@
       <c r="K29" t="n">
         <v>10.6</v>
       </c>
+      <c r="L29" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M29" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1678,6 +1856,12 @@
       <c r="K30" t="n">
         <v>6.75</v>
       </c>
+      <c r="L30" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1719,6 +1903,12 @@
       <c r="K31" t="n">
         <v>5.800000000000001</v>
       </c>
+      <c r="L31" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1760,6 +1950,12 @@
       <c r="K32" t="n">
         <v>9.25</v>
       </c>
+      <c r="L32" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1801,6 +1997,12 @@
       <c r="K33" t="n">
         <v>9.5</v>
       </c>
+      <c r="L33" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1842,6 +2044,12 @@
       <c r="K34" t="n">
         <v>10.6</v>
       </c>
+      <c r="L34" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1883,6 +2091,12 @@
       <c r="K35" t="n">
         <v>6.25</v>
       </c>
+      <c r="L35" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1924,6 +2138,12 @@
       <c r="K36" t="n">
         <v>5.4</v>
       </c>
+      <c r="L36" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1965,6 +2185,12 @@
       <c r="K37" t="n">
         <v>8.9</v>
       </c>
+      <c r="L37" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M37" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2006,6 +2232,12 @@
       <c r="K38" t="n">
         <v>11.5</v>
       </c>
+      <c r="L38" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M38" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2047,6 +2279,12 @@
       <c r="K39" t="n">
         <v>12.05</v>
       </c>
+      <c r="L39" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M39" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2088,6 +2326,12 @@
       <c r="K40" t="n">
         <v>7.25</v>
       </c>
+      <c r="L40" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M40" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2129,6 +2373,12 @@
       <c r="K41" t="n">
         <v>6.350000000000001</v>
       </c>
+      <c r="L41" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M41" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2170,6 +2420,12 @@
       <c r="K42" t="n">
         <v>6</v>
       </c>
+      <c r="L42" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2211,6 +2467,12 @@
       <c r="K43" t="n">
         <v>9</v>
       </c>
+      <c r="L43" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2252,6 +2514,12 @@
       <c r="K44" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="L44" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2293,6 +2561,12 @@
       <c r="K45" t="n">
         <v>6.75</v>
       </c>
+      <c r="L45" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M45" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2334,6 +2608,12 @@
       <c r="K46" t="n">
         <v>5.95</v>
       </c>
+      <c r="L46" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2375,6 +2655,12 @@
       <c r="K47" t="n">
         <v>8.15</v>
       </c>
+      <c r="L47" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M47" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2416,6 +2702,12 @@
       <c r="K48" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="L48" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M48" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2457,6 +2749,12 @@
       <c r="K49" t="n">
         <v>6.8</v>
       </c>
+      <c r="L49" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M49" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2498,6 +2796,12 @@
       <c r="K50" t="n">
         <v>5.25</v>
       </c>
+      <c r="L50" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M50" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2539,6 +2843,12 @@
       <c r="K51" t="n">
         <v>5.800000000000001</v>
       </c>
+      <c r="L51" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M51" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2580,6 +2890,12 @@
       <c r="K52" t="n">
         <v>12</v>
       </c>
+      <c r="L52" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M52" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2621,6 +2937,12 @@
       <c r="K53" t="n">
         <v>11.6</v>
       </c>
+      <c r="L53" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2662,6 +2984,12 @@
       <c r="K54" t="n">
         <v>11.3</v>
       </c>
+      <c r="L54" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2703,6 +3031,12 @@
       <c r="K55" t="n">
         <v>7</v>
       </c>
+      <c r="L55" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M55" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2744,6 +3078,12 @@
       <c r="K56" t="n">
         <v>6.1</v>
       </c>
+      <c r="L56" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M56" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2785,6 +3125,12 @@
       <c r="K57" t="n">
         <v>7.55</v>
       </c>
+      <c r="L57" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M57" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2826,6 +3172,12 @@
       <c r="K58" t="n">
         <v>7.949999999999999</v>
       </c>
+      <c r="L58" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M58" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2867,6 +3219,12 @@
       <c r="K59" t="n">
         <v>5.1</v>
       </c>
+      <c r="L59" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M59" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2908,6 +3266,12 @@
       <c r="K60" t="n">
         <v>6.25</v>
       </c>
+      <c r="L60" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M60" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2949,6 +3313,12 @@
       <c r="K61" t="n">
         <v>4.85</v>
       </c>
+      <c r="L61" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2990,6 +3360,12 @@
       <c r="K62" t="n">
         <v>8.6</v>
       </c>
+      <c r="L62" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M62" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3031,6 +3407,12 @@
       <c r="K63" t="n">
         <v>11.6</v>
       </c>
+      <c r="L63" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M63" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3072,6 +3454,12 @@
       <c r="K64" t="n">
         <v>11.35</v>
       </c>
+      <c r="L64" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M64" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3113,6 +3501,12 @@
       <c r="K65" t="n">
         <v>7.25</v>
       </c>
+      <c r="L65" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M65" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3154,6 +3548,12 @@
       <c r="K66" t="n">
         <v>5.4</v>
       </c>
+      <c r="L66" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M66" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3195,6 +3595,12 @@
       <c r="K67" t="n">
         <v>8.1</v>
       </c>
+      <c r="L67" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M67" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3236,6 +3642,12 @@
       <c r="K68" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L68" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M68" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3277,6 +3689,12 @@
       <c r="K69" t="n">
         <v>10.4</v>
       </c>
+      <c r="L69" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M69" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3318,6 +3736,12 @@
       <c r="K70" t="n">
         <v>6.25</v>
       </c>
+      <c r="L70" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M70" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3359,6 +3783,12 @@
       <c r="K71" t="n">
         <v>6.15</v>
       </c>
+      <c r="L71" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M71" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3400,6 +3830,12 @@
       <c r="K72" t="n">
         <v>7.15</v>
       </c>
+      <c r="L72" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M72" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3441,6 +3877,12 @@
       <c r="K73" t="n">
         <v>9.9</v>
       </c>
+      <c r="L73" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M73" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3482,6 +3924,12 @@
       <c r="K74" t="n">
         <v>10.95</v>
       </c>
+      <c r="L74" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M74" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3523,6 +3971,12 @@
       <c r="K75" t="n">
         <v>8</v>
       </c>
+      <c r="L75" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M75" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3564,6 +4018,12 @@
       <c r="K76" t="n">
         <v>3.65</v>
       </c>
+      <c r="L76" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M76" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3605,6 +4065,12 @@
       <c r="K77" t="n">
         <v>7.9</v>
       </c>
+      <c r="L77" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M77" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3646,6 +4112,12 @@
       <c r="K78" t="n">
         <v>8.35</v>
       </c>
+      <c r="L78" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M78" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3687,6 +4159,12 @@
       <c r="K79" t="n">
         <v>9.85</v>
       </c>
+      <c r="L79" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M79" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3728,6 +4206,12 @@
       <c r="K80" t="n">
         <v>7.25</v>
       </c>
+      <c r="L80" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M80" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3769,6 +4253,12 @@
       <c r="K81" t="n">
         <v>8.85</v>
       </c>
+      <c r="L81" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M81" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3810,6 +4300,12 @@
       <c r="K82" t="n">
         <v>6.85</v>
       </c>
+      <c r="L82" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M82" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3851,6 +4347,12 @@
       <c r="K83" t="n">
         <v>7.1</v>
       </c>
+      <c r="L83" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M83" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3892,6 +4394,12 @@
       <c r="K84" t="n">
         <v>5.95</v>
       </c>
+      <c r="L84" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M84" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3933,6 +4441,12 @@
       <c r="K85" t="n">
         <v>4</v>
       </c>
+      <c r="L85" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M85" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3974,6 +4488,12 @@
       <c r="K86" t="n">
         <v>4.6</v>
       </c>
+      <c r="L86" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M86" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4015,6 +4535,12 @@
       <c r="K87" t="n">
         <v>6.6</v>
       </c>
+      <c r="L87" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M87" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4056,6 +4582,12 @@
       <c r="K88" t="n">
         <v>7.300000000000001</v>
       </c>
+      <c r="L88" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M88" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4097,6 +4629,12 @@
       <c r="K89" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L89" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M89" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4138,6 +4676,12 @@
       <c r="K90" t="n">
         <v>3</v>
       </c>
+      <c r="L90" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M90" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4179,6 +4723,12 @@
       <c r="K91" t="n">
         <v>6.550000000000001</v>
       </c>
+      <c r="L91" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M91" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4220,6 +4770,12 @@
       <c r="K92" t="n">
         <v>7.1</v>
       </c>
+      <c r="L92" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M92" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4261,6 +4817,12 @@
       <c r="K93" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L93" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M93" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4302,6 +4864,12 @@
       <c r="K94" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L94" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M94" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4343,6 +4911,12 @@
       <c r="K95" t="n">
         <v>6.25</v>
       </c>
+      <c r="L95" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M95" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4384,6 +4958,12 @@
       <c r="K96" t="n">
         <v>5.25</v>
       </c>
+      <c r="L96" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M96" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4425,6 +5005,12 @@
       <c r="K97" t="n">
         <v>7.85</v>
       </c>
+      <c r="L97" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M97" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4466,6 +5052,12 @@
       <c r="K98" t="n">
         <v>7.95</v>
       </c>
+      <c r="L98" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M98" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4507,6 +5099,12 @@
       <c r="K99" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L99" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M99" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4548,6 +5146,12 @@
       <c r="K100" t="n">
         <v>3.25</v>
       </c>
+      <c r="L100" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M100" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4589,6 +5193,12 @@
       <c r="K101" t="n">
         <v>5.9</v>
       </c>
+      <c r="L101" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M101" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4630,6 +5240,12 @@
       <c r="K102" t="n">
         <v>6.9</v>
       </c>
+      <c r="L102" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M102" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4671,6 +5287,12 @@
       <c r="K103" t="n">
         <v>8.25</v>
       </c>
+      <c r="L103" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M103" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4712,6 +5334,12 @@
       <c r="K104" t="n">
         <v>7.75</v>
       </c>
+      <c r="L104" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M104" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4753,6 +5381,12 @@
       <c r="K105" t="n">
         <v>6</v>
       </c>
+      <c r="L105" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M105" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4794,6 +5428,12 @@
       <c r="K106" t="n">
         <v>6</v>
       </c>
+      <c r="L106" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M106" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4835,6 +5475,12 @@
       <c r="K107" t="n">
         <v>7</v>
       </c>
+      <c r="L107" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M107" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4876,6 +5522,12 @@
       <c r="K108" t="n">
         <v>8</v>
       </c>
+      <c r="L108" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M108" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4917,6 +5569,12 @@
       <c r="K109" t="n">
         <v>10.4</v>
       </c>
+      <c r="L109" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M109" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4958,6 +5616,12 @@
       <c r="K110" t="n">
         <v>6.25</v>
       </c>
+      <c r="L110" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M110" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4999,6 +5663,12 @@
       <c r="K111" t="n">
         <v>6.5</v>
       </c>
+      <c r="L111" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M111" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5040,6 +5710,12 @@
       <c r="K112" t="n">
         <v>7.15</v>
       </c>
+      <c r="L112" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M112" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5081,6 +5757,12 @@
       <c r="K113" t="n">
         <v>8.550000000000001</v>
       </c>
+      <c r="L113" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M113" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5122,6 +5804,12 @@
       <c r="K114" t="n">
         <v>8.9</v>
       </c>
+      <c r="L114" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M114" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5163,6 +5851,12 @@
       <c r="K115" t="n">
         <v>6.25</v>
       </c>
+      <c r="L115" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M115" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5204,6 +5898,12 @@
       <c r="K116" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="L116" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M116" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5245,6 +5945,12 @@
       <c r="K117" t="n">
         <v>9.75</v>
       </c>
+      <c r="L117" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M117" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5286,6 +5992,12 @@
       <c r="K118" t="n">
         <v>9.399999999999999</v>
       </c>
+      <c r="L118" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M118" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5327,6 +6039,12 @@
       <c r="K119" t="n">
         <v>8.85</v>
       </c>
+      <c r="L119" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M119" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5368,6 +6086,12 @@
       <c r="K120" t="n">
         <v>8.25</v>
       </c>
+      <c r="L120" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M120" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5409,6 +6133,12 @@
       <c r="K121" t="n">
         <v>8.15</v>
       </c>
+      <c r="L121" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M121" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5450,6 +6180,12 @@
       <c r="K122" t="n">
         <v>6.05</v>
       </c>
+      <c r="L122" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M122" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5491,6 +6227,12 @@
       <c r="K123" t="n">
         <v>6.8</v>
       </c>
+      <c r="L123" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M123" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5532,6 +6274,12 @@
       <c r="K124" t="n">
         <v>7.45</v>
       </c>
+      <c r="L124" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M124" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5573,6 +6321,12 @@
       <c r="K125" t="n">
         <v>6</v>
       </c>
+      <c r="L125" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M125" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5614,6 +6368,12 @@
       <c r="K126" t="n">
         <v>4.95</v>
       </c>
+      <c r="L126" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M126" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5655,6 +6415,12 @@
       <c r="K127" t="n">
         <v>7</v>
       </c>
+      <c r="L127" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M127" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5696,6 +6462,12 @@
       <c r="K128" t="n">
         <v>10.25</v>
       </c>
+      <c r="L128" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M128" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5737,6 +6509,12 @@
       <c r="K129" t="n">
         <v>10.25</v>
       </c>
+      <c r="L129" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M129" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5778,6 +6556,12 @@
       <c r="K130" t="n">
         <v>7</v>
       </c>
+      <c r="L130" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M130" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5819,6 +6603,12 @@
       <c r="K131" t="n">
         <v>5.8</v>
       </c>
+      <c r="L131" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M131" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5860,6 +6650,12 @@
       <c r="K132" t="n">
         <v>5.75</v>
       </c>
+      <c r="L132" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M132" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5901,6 +6697,12 @@
       <c r="K133" t="n">
         <v>7.449999999999999</v>
       </c>
+      <c r="L133" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M133" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5942,6 +6744,12 @@
       <c r="K134" t="n">
         <v>6.85</v>
       </c>
+      <c r="L134" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M134" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5983,6 +6791,12 @@
       <c r="K135" t="n">
         <v>4.5</v>
       </c>
+      <c r="L135" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M135" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6024,6 +6838,12 @@
       <c r="K136" t="n">
         <v>4.9</v>
       </c>
+      <c r="L136" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M136" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6065,6 +6885,12 @@
       <c r="K137" t="n">
         <v>6.25</v>
       </c>
+      <c r="L137" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M137" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6106,6 +6932,12 @@
       <c r="K138" t="n">
         <v>5.699999999999999</v>
       </c>
+      <c r="L138" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M138" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6147,6 +6979,12 @@
       <c r="K139" t="n">
         <v>6.4</v>
       </c>
+      <c r="L139" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M139" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6188,6 +7026,12 @@
       <c r="K140" t="n">
         <v>5.5</v>
       </c>
+      <c r="L140" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M140" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6229,6 +7073,12 @@
       <c r="K141" t="n">
         <v>6.15</v>
       </c>
+      <c r="L141" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M141" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6236,7 +7086,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6270,6 +7120,12 @@
       <c r="K142" t="n">
         <v>10.2</v>
       </c>
+      <c r="L142" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M142" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6277,7 +7133,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6311,6 +7167,12 @@
       <c r="K143" t="n">
         <v>9.949999999999999</v>
       </c>
+      <c r="L143" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M143" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6318,7 +7180,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6352,6 +7214,12 @@
       <c r="K144" t="n">
         <v>8.800000000000001</v>
       </c>
+      <c r="L144" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M144" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6359,7 +7227,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6393,6 +7261,12 @@
       <c r="K145" t="n">
         <v>6.25</v>
       </c>
+      <c r="L145" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M145" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6400,7 +7274,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6434,6 +7308,12 @@
       <c r="K146" t="n">
         <v>5.699999999999999</v>
       </c>
+      <c r="L146" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M146" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6475,6 +7355,12 @@
       <c r="K147" t="n">
         <v>8.550000000000001</v>
       </c>
+      <c r="L147" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M147" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6516,6 +7402,12 @@
       <c r="K148" t="n">
         <v>6.7</v>
       </c>
+      <c r="L148" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M148" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6557,6 +7449,12 @@
       <c r="K149" t="n">
         <v>10.2</v>
       </c>
+      <c r="L149" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M149" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6598,6 +7496,12 @@
       <c r="K150" t="n">
         <v>5</v>
       </c>
+      <c r="L150" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M150" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6639,6 +7543,12 @@
       <c r="K151" t="n">
         <v>5.5</v>
       </c>
+      <c r="L151" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M151" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6680,6 +7590,12 @@
       <c r="K152" t="n">
         <v>7.7</v>
       </c>
+      <c r="L152" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M152" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6721,6 +7637,12 @@
       <c r="K153" t="n">
         <v>6.949999999999999</v>
       </c>
+      <c r="L153" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M153" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6762,6 +7684,12 @@
       <c r="K154" t="n">
         <v>8.15</v>
       </c>
+      <c r="L154" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M154" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6803,6 +7731,12 @@
       <c r="K155" t="n">
         <v>5</v>
       </c>
+      <c r="L155" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M155" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6844,6 +7778,12 @@
       <c r="K156" t="n">
         <v>4.8</v>
       </c>
+      <c r="L156" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M156" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6856,7 +7796,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6885,6 +7825,12 @@
       <c r="K157" t="n">
         <v>5.5</v>
       </c>
+      <c r="L157" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M157" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6897,7 +7843,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6926,6 +7872,12 @@
       <c r="K158" t="n">
         <v>6.3</v>
       </c>
+      <c r="L158" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M158" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6938,7 +7890,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6967,6 +7919,12 @@
       <c r="K159" t="n">
         <v>4.3</v>
       </c>
+      <c r="L159" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M159" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6979,7 +7937,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7008,6 +7966,12 @@
       <c r="K160" t="n">
         <v>5.75</v>
       </c>
+      <c r="L160" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M160" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7020,7 +7984,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7049,6 +8013,12 @@
       <c r="K161" t="n">
         <v>4.95</v>
       </c>
+      <c r="L161" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M161" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7090,6 +8060,12 @@
       <c r="K162" t="n">
         <v>6.8</v>
       </c>
+      <c r="L162" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M162" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7131,6 +8107,12 @@
       <c r="K163" t="n">
         <v>6.9</v>
       </c>
+      <c r="L163" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M163" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7172,6 +8154,12 @@
       <c r="K164" t="n">
         <v>7.6</v>
       </c>
+      <c r="L164" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M164" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7213,6 +8201,12 @@
       <c r="K165" t="n">
         <v>5</v>
       </c>
+      <c r="L165" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M165" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7254,6 +8248,12 @@
       <c r="K166" t="n">
         <v>5.1</v>
       </c>
+      <c r="L166" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M166" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7295,6 +8295,12 @@
       <c r="K167" t="n">
         <v>7.05</v>
       </c>
+      <c r="L167" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M167" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7336,6 +8342,12 @@
       <c r="K168" t="n">
         <v>7.05</v>
       </c>
+      <c r="L168" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M168" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7377,6 +8389,12 @@
       <c r="K169" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L169" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M169" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7418,6 +8436,12 @@
       <c r="K170" t="n">
         <v>6</v>
       </c>
+      <c r="L170" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M170" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7459,6 +8483,12 @@
       <c r="K171" t="n">
         <v>4.6</v>
       </c>
+      <c r="L171" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M171" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7500,6 +8530,12 @@
       <c r="K172" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="L172" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M172" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7541,6 +8577,12 @@
       <c r="K173" t="n">
         <v>9.9</v>
       </c>
+      <c r="L173" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M173" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7582,6 +8624,12 @@
       <c r="K174" t="n">
         <v>8.800000000000001</v>
       </c>
+      <c r="L174" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M174" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7623,6 +8671,12 @@
       <c r="K175" t="n">
         <v>5.75</v>
       </c>
+      <c r="L175" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M175" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7664,6 +8718,12 @@
       <c r="K176" t="n">
         <v>5.35</v>
       </c>
+      <c r="L176" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M176" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7705,6 +8765,12 @@
       <c r="K177" t="n">
         <v>8.15</v>
       </c>
+      <c r="L177" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M177" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7746,6 +8812,12 @@
       <c r="K178" t="n">
         <v>6.75</v>
       </c>
+      <c r="L178" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M178" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7787,6 +8859,12 @@
       <c r="K179" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L179" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M179" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7828,6 +8906,12 @@
       <c r="K180" t="n">
         <v>6.5</v>
       </c>
+      <c r="L180" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M180" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7869,6 +8953,12 @@
       <c r="K181" t="n">
         <v>5.25</v>
       </c>
+      <c r="L181" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M181" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7910,6 +9000,12 @@
       <c r="K182" t="n">
         <v>5.1</v>
       </c>
+      <c r="L182" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M182" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7951,6 +9047,12 @@
       <c r="K183" t="n">
         <v>7.800000000000001</v>
       </c>
+      <c r="L183" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M183" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7992,6 +9094,12 @@
       <c r="K184" t="n">
         <v>7.9</v>
       </c>
+      <c r="L184" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M184" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8033,6 +9141,12 @@
       <c r="K185" t="n">
         <v>5.5</v>
       </c>
+      <c r="L185" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M185" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8074,6 +9188,12 @@
       <c r="K186" t="n">
         <v>5.3</v>
       </c>
+      <c r="L186" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M186" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8115,6 +9235,12 @@
       <c r="K187" t="n">
         <v>7.05</v>
       </c>
+      <c r="L187" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M187" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8156,6 +9282,12 @@
       <c r="K188" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L188" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M188" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8197,6 +9329,12 @@
       <c r="K189" t="n">
         <v>5.2</v>
       </c>
+      <c r="L189" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M189" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8238,6 +9376,12 @@
       <c r="K190" t="n">
         <v>5.5</v>
       </c>
+      <c r="L190" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M190" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8279,6 +9423,12 @@
       <c r="K191" t="n">
         <v>4.4</v>
       </c>
+      <c r="L191" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M191" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8320,6 +9470,12 @@
       <c r="K192" t="n">
         <v>5.4</v>
       </c>
+      <c r="L192" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M192" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8361,6 +9517,12 @@
       <c r="K193" t="n">
         <v>5.85</v>
       </c>
+      <c r="L193" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M193" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8402,6 +9564,12 @@
       <c r="K194" t="n">
         <v>5.4</v>
       </c>
+      <c r="L194" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M194" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8443,6 +9611,12 @@
       <c r="K195" t="n">
         <v>5.75</v>
       </c>
+      <c r="L195" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M195" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8484,6 +9658,12 @@
       <c r="K196" t="n">
         <v>4.5</v>
       </c>
+      <c r="L196" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M196" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8525,6 +9705,12 @@
       <c r="K197" t="n">
         <v>6.25</v>
       </c>
+      <c r="L197" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M197" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8566,6 +9752,12 @@
       <c r="K198" t="n">
         <v>6.5</v>
       </c>
+      <c r="L198" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M198" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8607,6 +9799,12 @@
       <c r="K199" t="n">
         <v>6.95</v>
       </c>
+      <c r="L199" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M199" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8648,6 +9846,12 @@
       <c r="K200" t="n">
         <v>5.75</v>
       </c>
+      <c r="L200" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M200" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8689,6 +9893,12 @@
       <c r="K201" t="n">
         <v>5.25</v>
       </c>
+      <c r="L201" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M201" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8730,6 +9940,12 @@
       <c r="K202" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="L202" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M202" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8771,6 +9987,12 @@
       <c r="K203" t="n">
         <v>7.5</v>
       </c>
+      <c r="L203" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M203" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8812,6 +10034,12 @@
       <c r="K204" t="n">
         <v>8.9</v>
       </c>
+      <c r="L204" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M204" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8853,6 +10081,12 @@
       <c r="K205" t="n">
         <v>7</v>
       </c>
+      <c r="L205" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M205" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8894,6 +10128,12 @@
       <c r="K206" t="n">
         <v>6.6</v>
       </c>
+      <c r="L206" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M206" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8935,6 +10175,12 @@
       <c r="K207" t="n">
         <v>7.5</v>
       </c>
+      <c r="L207" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M207" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8976,6 +10222,12 @@
       <c r="K208" t="n">
         <v>6.35</v>
       </c>
+      <c r="L208" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M208" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9017,6 +10269,12 @@
       <c r="K209" t="n">
         <v>5.95</v>
       </c>
+      <c r="L209" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M209" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9058,6 +10316,12 @@
       <c r="K210" t="n">
         <v>6.5</v>
       </c>
+      <c r="L210" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M210" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9099,6 +10363,12 @@
       <c r="K211" t="n">
         <v>5.85</v>
       </c>
+      <c r="L211" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M211" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9140,6 +10410,12 @@
       <c r="K212" t="n">
         <v>7.35</v>
       </c>
+      <c r="L212" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M212" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9181,6 +10457,12 @@
       <c r="K213" t="n">
         <v>6.3</v>
       </c>
+      <c r="L213" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M213" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9222,6 +10504,12 @@
       <c r="K214" t="n">
         <v>7.65</v>
       </c>
+      <c r="L214" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M214" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9263,6 +10551,12 @@
       <c r="K215" t="n">
         <v>9</v>
       </c>
+      <c r="L215" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M215" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9304,6 +10598,12 @@
       <c r="K216" t="n">
         <v>8.850000000000001</v>
       </c>
+      <c r="L216" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M216" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9345,6 +10645,12 @@
       <c r="K217" t="n">
         <v>7.55</v>
       </c>
+      <c r="L217" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M217" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -9386,6 +10692,12 @@
       <c r="K218" t="n">
         <v>6.9</v>
       </c>
+      <c r="L218" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M218" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9427,6 +10739,12 @@
       <c r="K219" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L219" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M219" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9468,6 +10786,12 @@
       <c r="K220" t="n">
         <v>4.75</v>
       </c>
+      <c r="L220" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M220" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9509,6 +10833,12 @@
       <c r="K221" t="n">
         <v>5.15</v>
       </c>
+      <c r="L221" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M221" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9550,6 +10880,12 @@
       <c r="K222" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L222" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M222" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -9591,6 +10927,12 @@
       <c r="K223" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="L223" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M223" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9632,6 +10974,12 @@
       <c r="K224" t="n">
         <v>8.6</v>
       </c>
+      <c r="L224" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M224" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -9673,6 +11021,12 @@
       <c r="K225" t="n">
         <v>4.25</v>
       </c>
+      <c r="L225" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M225" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9714,6 +11068,12 @@
       <c r="K226" t="n">
         <v>5.9</v>
       </c>
+      <c r="L226" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M226" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9755,6 +11115,12 @@
       <c r="K227" t="n">
         <v>6.05</v>
       </c>
+      <c r="L227" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M227" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9796,6 +11162,12 @@
       <c r="K228" t="n">
         <v>7.25</v>
       </c>
+      <c r="L228" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M228" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9837,6 +11209,12 @@
       <c r="K229" t="n">
         <v>7.25</v>
       </c>
+      <c r="L229" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M229" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9878,6 +11256,12 @@
       <c r="K230" t="n">
         <v>2.25</v>
       </c>
+      <c r="L230" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M230" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9919,6 +11303,12 @@
       <c r="K231" t="n">
         <v>6.9</v>
       </c>
+      <c r="L231" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M231" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9960,6 +11350,12 @@
       <c r="K232" t="n">
         <v>6.9</v>
       </c>
+      <c r="L232" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M232" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10001,6 +11397,12 @@
       <c r="K233" t="n">
         <v>6.6</v>
       </c>
+      <c r="L233" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M233" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10042,6 +11444,12 @@
       <c r="K234" t="n">
         <v>6.55</v>
       </c>
+      <c r="L234" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M234" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10083,6 +11491,12 @@
       <c r="K235" t="n">
         <v>5.25</v>
       </c>
+      <c r="L235" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M235" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10124,6 +11538,12 @@
       <c r="K236" t="n">
         <v>5.1</v>
       </c>
+      <c r="L236" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M236" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10165,6 +11585,12 @@
       <c r="K237" t="n">
         <v>7.25</v>
       </c>
+      <c r="L237" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M237" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10206,6 +11632,12 @@
       <c r="K238" t="n">
         <v>6.85</v>
       </c>
+      <c r="L238" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M238" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10247,6 +11679,12 @@
       <c r="K239" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L239" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M239" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10288,6 +11726,12 @@
       <c r="K240" t="n">
         <v>1</v>
       </c>
+      <c r="L240" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M240" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10329,6 +11773,12 @@
       <c r="K241" t="n">
         <v>7.1</v>
       </c>
+      <c r="L241" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M241" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -10370,6 +11820,12 @@
       <c r="K242" t="n">
         <v>7.95</v>
       </c>
+      <c r="L242" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M242" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -10411,6 +11867,12 @@
       <c r="K243" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L243" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M243" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -10452,6 +11914,12 @@
       <c r="K244" t="n">
         <v>8.85</v>
       </c>
+      <c r="L244" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M244" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -10493,6 +11961,12 @@
       <c r="K245" t="n">
         <v>7.25</v>
       </c>
+      <c r="L245" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M245" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -10534,6 +12008,12 @@
       <c r="K246" t="n">
         <v>6.65</v>
       </c>
+      <c r="L246" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M246" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -10575,6 +12055,12 @@
       <c r="K247" t="n">
         <v>7.95</v>
       </c>
+      <c r="L247" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M247" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10616,6 +12102,12 @@
       <c r="K248" t="n">
         <v>9.449999999999999</v>
       </c>
+      <c r="L248" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M248" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -10657,6 +12149,12 @@
       <c r="K249" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="L249" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M249" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -10698,6 +12196,12 @@
       <c r="K250" t="n">
         <v>8</v>
       </c>
+      <c r="L250" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M250" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -10739,6 +12243,12 @@
       <c r="K251" t="n">
         <v>6.1</v>
       </c>
+      <c r="L251" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M251" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10751,7 +12261,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -10780,6 +12290,12 @@
       <c r="K252" t="n">
         <v>7.5</v>
       </c>
+      <c r="L252" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M252" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10792,7 +12308,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -10821,6 +12337,12 @@
       <c r="K253" t="n">
         <v>7.4</v>
       </c>
+      <c r="L253" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M253" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10833,7 +12355,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -10862,6 +12384,12 @@
       <c r="K254" t="n">
         <v>7.3</v>
       </c>
+      <c r="L254" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M254" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10874,7 +12402,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -10903,6 +12431,12 @@
       <c r="K255" t="n">
         <v>3.25</v>
       </c>
+      <c r="L255" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M255" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10915,7 +12449,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -10944,6 +12478,12 @@
       <c r="K256" t="n">
         <v>6.5</v>
       </c>
+      <c r="L256" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M256" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10985,6 +12525,12 @@
       <c r="K257" t="n">
         <v>7.9</v>
       </c>
+      <c r="L257" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M257" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11026,6 +12572,12 @@
       <c r="K258" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L258" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M258" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11067,6 +12619,12 @@
       <c r="K259" t="n">
         <v>8.1</v>
       </c>
+      <c r="L259" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M259" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11108,6 +12666,12 @@
       <c r="K260" t="n">
         <v>7.5</v>
       </c>
+      <c r="L260" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M260" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11149,6 +12713,12 @@
       <c r="K261" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L261" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M261" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11190,6 +12760,12 @@
       <c r="K262" t="n">
         <v>7.3</v>
       </c>
+      <c r="L262" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M262" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -11231,6 +12807,12 @@
       <c r="K263" t="n">
         <v>6.35</v>
       </c>
+      <c r="L263" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M263" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -11272,6 +12854,12 @@
       <c r="K264" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L264" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M264" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -11313,6 +12901,12 @@
       <c r="K265" t="n">
         <v>7.75</v>
       </c>
+      <c r="L265" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M265" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -11354,6 +12948,12 @@
       <c r="K266" t="n">
         <v>5.4</v>
       </c>
+      <c r="L266" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M266" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -11395,6 +12995,12 @@
       <c r="K267" t="n">
         <v>6.85</v>
       </c>
+      <c r="L267" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M267" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -11436,6 +13042,12 @@
       <c r="K268" t="n">
         <v>6.550000000000001</v>
       </c>
+      <c r="L268" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M268" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -11477,6 +13089,12 @@
       <c r="K269" t="n">
         <v>7.1</v>
       </c>
+      <c r="L269" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M269" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -11518,6 +13136,12 @@
       <c r="K270" t="n">
         <v>1.5</v>
       </c>
+      <c r="L270" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M270" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -11559,6 +13183,12 @@
       <c r="K271" t="n">
         <v>5.25</v>
       </c>
+      <c r="L271" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M271" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -11600,6 +13230,12 @@
       <c r="K272" t="n">
         <v>7.9</v>
       </c>
+      <c r="L272" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M272" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -11641,6 +13277,12 @@
       <c r="K273" t="n">
         <v>8.25</v>
       </c>
+      <c r="L273" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M273" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -11682,6 +13324,12 @@
       <c r="K274" t="n">
         <v>8.15</v>
       </c>
+      <c r="L274" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M274" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -11723,6 +13371,12 @@
       <c r="K275" t="n">
         <v>8.5</v>
       </c>
+      <c r="L275" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M275" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -11764,6 +13418,12 @@
       <c r="K276" t="n">
         <v>7.6</v>
       </c>
+      <c r="L276" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M276" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -11805,6 +13465,12 @@
       <c r="K277" t="n">
         <v>8.15</v>
       </c>
+      <c r="L277" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M277" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11846,6 +13512,12 @@
       <c r="K278" t="n">
         <v>7.899999999999999</v>
       </c>
+      <c r="L278" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M278" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11887,6 +13559,12 @@
       <c r="K279" t="n">
         <v>8.6</v>
       </c>
+      <c r="L279" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M279" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11928,6 +13606,12 @@
       <c r="K280" t="n">
         <v>8.75</v>
       </c>
+      <c r="L280" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M280" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11969,6 +13653,12 @@
       <c r="K281" t="n">
         <v>7.8</v>
       </c>
+      <c r="L281" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M281" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12010,6 +13700,12 @@
       <c r="K282" t="n">
         <v>7.9</v>
       </c>
+      <c r="L282" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M282" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12051,6 +13747,12 @@
       <c r="K283" t="n">
         <v>7.75</v>
       </c>
+      <c r="L283" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M283" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -12092,6 +13794,12 @@
       <c r="K284" t="n">
         <v>8.9</v>
       </c>
+      <c r="L284" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M284" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12133,6 +13841,12 @@
       <c r="K285" t="n">
         <v>8</v>
       </c>
+      <c r="L285" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M285" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -12174,6 +13888,12 @@
       <c r="K286" t="n">
         <v>6.15</v>
       </c>
+      <c r="L286" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M286" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -12215,6 +13935,12 @@
       <c r="K287" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L287" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M287" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -12256,6 +13982,12 @@
       <c r="K288" t="n">
         <v>8.35</v>
       </c>
+      <c r="L288" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M288" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -12297,6 +14029,12 @@
       <c r="K289" t="n">
         <v>7.2</v>
       </c>
+      <c r="L289" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M289" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -12338,6 +14076,12 @@
       <c r="K290" t="n">
         <v>8.25</v>
       </c>
+      <c r="L290" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M290" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -12379,6 +14123,12 @@
       <c r="K291" t="n">
         <v>6.300000000000001</v>
       </c>
+      <c r="L291" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M291" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -12420,6 +14170,12 @@
       <c r="K292" t="n">
         <v>7.5</v>
       </c>
+      <c r="L292" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M292" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -12461,6 +14217,12 @@
       <c r="K293" t="n">
         <v>6.75</v>
       </c>
+      <c r="L293" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M293" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -12502,6 +14264,12 @@
       <c r="K294" t="n">
         <v>7.25</v>
       </c>
+      <c r="L294" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M294" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -12543,6 +14311,12 @@
       <c r="K295" t="n">
         <v>9.5</v>
       </c>
+      <c r="L295" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M295" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -12584,6 +14358,12 @@
       <c r="K296" t="n">
         <v>8.75</v>
       </c>
+      <c r="L296" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M296" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -12625,6 +14405,12 @@
       <c r="K297" t="n">
         <v>6.75</v>
       </c>
+      <c r="L297" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M297" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -12666,6 +14452,12 @@
       <c r="K298" t="n">
         <v>6.55</v>
       </c>
+      <c r="L298" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M298" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -12707,6 +14499,12 @@
       <c r="K299" t="n">
         <v>7.1</v>
       </c>
+      <c r="L299" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M299" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -12748,6 +14546,12 @@
       <c r="K300" t="n">
         <v>5</v>
       </c>
+      <c r="L300" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M300" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -12789,6 +14593,12 @@
       <c r="K301" t="n">
         <v>5.15</v>
       </c>
+      <c r="L301" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M301" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -12830,6 +14640,12 @@
       <c r="K302" t="n">
         <v>7.7</v>
       </c>
+      <c r="L302" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M302" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -12871,6 +14687,12 @@
       <c r="K303" t="n">
         <v>10.3</v>
       </c>
+      <c r="L303" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M303" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -12912,6 +14734,12 @@
       <c r="K304" t="n">
         <v>11.15</v>
       </c>
+      <c r="L304" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M304" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -12953,6 +14781,12 @@
       <c r="K305" t="n">
         <v>7.75</v>
       </c>
+      <c r="L305" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M305" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -12994,6 +14828,12 @@
       <c r="K306" t="n">
         <v>7.2</v>
       </c>
+      <c r="L306" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M306" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -13006,7 +14846,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -13035,6 +14875,12 @@
       <c r="K307" t="n">
         <v>7.45</v>
       </c>
+      <c r="L307" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M307" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -13047,7 +14893,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -13076,6 +14922,12 @@
       <c r="K308" t="n">
         <v>7.15</v>
       </c>
+      <c r="L308" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M308" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -13088,7 +14940,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -13117,6 +14969,12 @@
       <c r="K309" t="n">
         <v>7.95</v>
       </c>
+      <c r="L309" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M309" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -13129,7 +14987,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -13158,6 +15016,12 @@
       <c r="K310" t="n">
         <v>6</v>
       </c>
+      <c r="L310" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M310" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -13170,7 +15034,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -13199,6 +15063,12 @@
       <c r="K311" t="n">
         <v>4.65</v>
       </c>
+      <c r="L311" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M311" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -13240,6 +15110,12 @@
       <c r="K312" t="n">
         <v>7.35</v>
       </c>
+      <c r="L312" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M312" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -13281,6 +15157,12 @@
       <c r="K313" t="n">
         <v>8.25</v>
       </c>
+      <c r="L313" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M313" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -13322,6 +15204,12 @@
       <c r="K314" t="n">
         <v>8.35</v>
       </c>
+      <c r="L314" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M314" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -13363,6 +15251,12 @@
       <c r="K315" t="n">
         <v>6.25</v>
       </c>
+      <c r="L315" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M315" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -13404,6 +15298,12 @@
       <c r="K316" t="n">
         <v>5.7</v>
       </c>
+      <c r="L316" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M316" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -13445,6 +15345,12 @@
       <c r="K317" t="n">
         <v>6.1</v>
       </c>
+      <c r="L317" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M317" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -13486,6 +15392,12 @@
       <c r="K318" t="n">
         <v>5.05</v>
       </c>
+      <c r="L318" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M318" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -13527,6 +15439,12 @@
       <c r="K319" t="n">
         <v>7.8</v>
       </c>
+      <c r="L319" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M319" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -13568,6 +15486,12 @@
       <c r="K320" t="n">
         <v>4</v>
       </c>
+      <c r="L320" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M320" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -13609,6 +15533,12 @@
       <c r="K321" t="n">
         <v>5.25</v>
       </c>
+      <c r="L321" t="n">
+        <v>105.8342</v>
+      </c>
+      <c r="M321" t="n">
+        <v>21.0278</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -13650,6 +15580,12 @@
       <c r="K322" t="n">
         <v>0.45</v>
       </c>
+      <c r="L322" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M322" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -13691,6 +15627,12 @@
       <c r="K323" t="n">
         <v>6.65</v>
       </c>
+      <c r="L323" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M323" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -13732,6 +15674,12 @@
       <c r="K324" t="n">
         <v>6.1</v>
       </c>
+      <c r="L324" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M324" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -13773,6 +15721,12 @@
       <c r="K325" t="n">
         <v>3.5</v>
       </c>
+      <c r="L325" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M325" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -13814,6 +15768,12 @@
       <c r="K326" t="n">
         <v>2.8</v>
       </c>
+      <c r="L326" t="n">
+        <v>106.6297</v>
+      </c>
+      <c r="M326" t="n">
+        <v>10.8231</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -13855,6 +15815,12 @@
       <c r="K327" t="n">
         <v>9.050000000000001</v>
       </c>
+      <c r="L327" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M327" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -13896,6 +15862,12 @@
       <c r="K328" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L328" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M328" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -13937,6 +15909,12 @@
       <c r="K329" t="n">
         <v>10</v>
       </c>
+      <c r="L329" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M329" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -13978,6 +15956,12 @@
       <c r="K330" t="n">
         <v>4.25</v>
       </c>
+      <c r="L330" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M330" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -14019,6 +16003,12 @@
       <c r="K331" t="n">
         <v>7.25</v>
       </c>
+      <c r="L331" t="n">
+        <v>106.686</v>
+      </c>
+      <c r="M331" t="n">
+        <v>20.8449</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -14060,6 +16050,12 @@
       <c r="K332" t="n">
         <v>7.95</v>
       </c>
+      <c r="L332" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M332" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -14101,6 +16097,12 @@
       <c r="K333" t="n">
         <v>7.65</v>
       </c>
+      <c r="L333" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M333" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -14142,6 +16144,12 @@
       <c r="K334" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L334" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M334" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -14183,6 +16191,12 @@
       <c r="K335" t="n">
         <v>5.25</v>
       </c>
+      <c r="L335" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M335" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -14224,6 +16238,12 @@
       <c r="K336" t="n">
         <v>4.449999999999999</v>
       </c>
+      <c r="L336" t="n">
+        <v>108.2022</v>
+      </c>
+      <c r="M336" t="n">
+        <v>16.0471</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -14265,6 +16285,12 @@
       <c r="K337" t="n">
         <v>6.9</v>
       </c>
+      <c r="L337" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M337" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -14306,6 +16332,12 @@
       <c r="K338" t="n">
         <v>6.800000000000001</v>
       </c>
+      <c r="L338" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M338" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -14347,6 +16379,12 @@
       <c r="K339" t="n">
         <v>9.9</v>
       </c>
+      <c r="L339" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M339" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -14388,6 +16426,12 @@
       <c r="K340" t="n">
         <v>5.5</v>
       </c>
+      <c r="L340" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M340" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -14429,6 +16473,12 @@
       <c r="K341" t="n">
         <v>4.5</v>
       </c>
+      <c r="L341" t="n">
+        <v>104.715</v>
+      </c>
+      <c r="M341" t="n">
+        <v>22.824</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -14470,6 +16520,12 @@
       <c r="K342" t="n">
         <v>8</v>
       </c>
+      <c r="L342" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M342" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -14511,6 +16567,12 @@
       <c r="K343" t="n">
         <v>9.4</v>
       </c>
+      <c r="L343" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M343" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -14552,6 +16614,12 @@
       <c r="K344" t="n">
         <v>8.6</v>
       </c>
+      <c r="L344" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M344" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -14593,6 +16661,12 @@
       <c r="K345" t="n">
         <v>5.25</v>
       </c>
+      <c r="L345" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M345" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -14634,6 +16708,12 @@
       <c r="K346" t="n">
         <v>5.6</v>
       </c>
+      <c r="L346" t="n">
+        <v>106.2522</v>
+      </c>
+      <c r="M346" t="n">
+        <v>22.6657</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -14675,6 +16755,12 @@
       <c r="K347" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L347" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M347" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -14716,6 +16802,12 @@
       <c r="K348" t="n">
         <v>7.800000000000001</v>
       </c>
+      <c r="L348" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M348" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -14757,6 +16849,12 @@
       <c r="K349" t="n">
         <v>10.55</v>
       </c>
+      <c r="L349" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M349" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -14798,6 +16896,12 @@
       <c r="K350" t="n">
         <v>4.25</v>
       </c>
+      <c r="L350" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M350" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -14839,6 +16943,12 @@
       <c r="K351" t="n">
         <v>4.4</v>
       </c>
+      <c r="L351" t="n">
+        <v>103.273</v>
+      </c>
+      <c r="M351" t="n">
+        <v>22.3964</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -14880,6 +16990,12 @@
       <c r="K352" t="n">
         <v>8.25</v>
       </c>
+      <c r="L352" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M352" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -14921,6 +17037,12 @@
       <c r="K353" t="n">
         <v>9.85</v>
       </c>
+      <c r="L353" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M353" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -14962,6 +17084,12 @@
       <c r="K354" t="n">
         <v>8.949999999999999</v>
       </c>
+      <c r="L354" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M354" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -15003,6 +17131,12 @@
       <c r="K355" t="n">
         <v>7.5</v>
       </c>
+      <c r="L355" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M355" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -15044,6 +17178,12 @@
       <c r="K356" t="n">
         <v>6.65</v>
       </c>
+      <c r="L356" t="n">
+        <v>103.9706</v>
+      </c>
+      <c r="M356" t="n">
+        <v>22.3381</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -15085,6 +17225,12 @@
       <c r="K357" t="n">
         <v>7.5</v>
       </c>
+      <c r="L357" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M357" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -15126,6 +17272,12 @@
       <c r="K358" t="n">
         <v>11</v>
       </c>
+      <c r="L358" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M358" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -15167,6 +17319,12 @@
       <c r="K359" t="n">
         <v>12.9</v>
       </c>
+      <c r="L359" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M359" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -15208,6 +17366,12 @@
       <c r="K360" t="n">
         <v>7</v>
       </c>
+      <c r="L360" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M360" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -15249,6 +17413,12 @@
       <c r="K361" t="n">
         <v>7.8</v>
       </c>
+      <c r="L361" t="n">
+        <v>105.2352</v>
+      </c>
+      <c r="M361" t="n">
+        <v>21.8238</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -15290,6 +17460,12 @@
       <c r="K362" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L362" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M362" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -15331,6 +17507,12 @@
       <c r="K363" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="L363" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M363" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -15372,6 +17554,12 @@
       <c r="K364" t="n">
         <v>10.4</v>
       </c>
+      <c r="L364" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M364" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -15413,6 +17601,12 @@
       <c r="K365" t="n">
         <v>5.75</v>
       </c>
+      <c r="L365" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M365" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -15454,6 +17648,12 @@
       <c r="K366" t="n">
         <v>6</v>
       </c>
+      <c r="L366" t="n">
+        <v>106.7504</v>
+      </c>
+      <c r="M366" t="n">
+        <v>21.845</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -15495,6 +17695,12 @@
       <c r="K367" t="n">
         <v>9.35</v>
       </c>
+      <c r="L367" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M367" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -15536,6 +17742,12 @@
       <c r="K368" t="n">
         <v>10.3</v>
       </c>
+      <c r="L368" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M368" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -15577,6 +17789,12 @@
       <c r="K369" t="n">
         <v>13.05</v>
       </c>
+      <c r="L369" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M369" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -15618,6 +17836,12 @@
       <c r="K370" t="n">
         <v>0</v>
       </c>
+      <c r="L370" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M370" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -15659,6 +17883,12 @@
       <c r="K371" t="n">
         <v>6.05</v>
       </c>
+      <c r="L371" t="n">
+        <v>105.8391</v>
+      </c>
+      <c r="M371" t="n">
+        <v>22.146</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -15700,6 +17930,12 @@
       <c r="K372" t="n">
         <v>7.1</v>
       </c>
+      <c r="L372" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M372" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -15741,6 +17977,12 @@
       <c r="K373" t="n">
         <v>9.4</v>
       </c>
+      <c r="L373" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M373" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -15782,6 +18024,12 @@
       <c r="K374" t="n">
         <v>9.5</v>
       </c>
+      <c r="L374" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M374" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -15823,6 +18071,12 @@
       <c r="K375" t="n">
         <v>5.5</v>
       </c>
+      <c r="L375" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M375" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -15864,6 +18118,12 @@
       <c r="K376" t="n">
         <v>6.4</v>
       </c>
+      <c r="L376" t="n">
+        <v>105.8526</v>
+      </c>
+      <c r="M376" t="n">
+        <v>21.5928</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -15905,6 +18165,12 @@
       <c r="K377" t="n">
         <v>11.65</v>
       </c>
+      <c r="L377" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M377" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -15946,6 +18212,12 @@
       <c r="K378" t="n">
         <v>10.8</v>
       </c>
+      <c r="L378" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M378" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -15987,6 +18259,12 @@
       <c r="K379" t="n">
         <v>11.95</v>
       </c>
+      <c r="L379" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M379" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -16028,6 +18306,12 @@
       <c r="K380" t="n">
         <v>7.5</v>
       </c>
+      <c r="L380" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M380" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -16069,6 +18353,12 @@
       <c r="K381" t="n">
         <v>5.9</v>
       </c>
+      <c r="L381" t="n">
+        <v>104.7116</v>
+      </c>
+      <c r="M381" t="n">
+        <v>21.727</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -16110,6 +18400,12 @@
       <c r="K382" t="n">
         <v>8.4</v>
       </c>
+      <c r="L382" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M382" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -16151,6 +18447,12 @@
       <c r="K383" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="L383" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M383" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -16192,6 +18494,12 @@
       <c r="K384" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L384" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M384" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -16233,6 +18541,12 @@
       <c r="K385" t="n">
         <v>7.75</v>
       </c>
+      <c r="L385" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M385" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -16274,6 +18588,12 @@
       <c r="K386" t="n">
         <v>6.1</v>
       </c>
+      <c r="L386" t="n">
+        <v>103.7289</v>
+      </c>
+      <c r="M386" t="n">
+        <v>21.328</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -16315,6 +18635,12 @@
       <c r="K387" t="n">
         <v>9.1</v>
       </c>
+      <c r="L387" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M387" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -16356,6 +18682,12 @@
       <c r="K388" t="n">
         <v>11</v>
       </c>
+      <c r="L388" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M388" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -16397,6 +18729,12 @@
       <c r="K389" t="n">
         <v>10.7</v>
       </c>
+      <c r="L389" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M389" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -16438,6 +18776,12 @@
       <c r="K390" t="n">
         <v>6.75</v>
       </c>
+      <c r="L390" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M390" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -16479,6 +18823,12 @@
       <c r="K391" t="n">
         <v>7.2</v>
       </c>
+      <c r="L391" t="n">
+        <v>105.2253</v>
+      </c>
+      <c r="M391" t="n">
+        <v>21.2684</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -16520,6 +18870,12 @@
       <c r="K392" t="n">
         <v>6.6</v>
       </c>
+      <c r="L392" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M392" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -16561,6 +18917,12 @@
       <c r="K393" t="n">
         <v>11.65</v>
       </c>
+      <c r="L393" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M393" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -16602,6 +18964,12 @@
       <c r="K394" t="n">
         <v>10.6</v>
       </c>
+      <c r="L394" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M394" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -16643,6 +19011,12 @@
       <c r="K395" t="n">
         <v>9</v>
       </c>
+      <c r="L395" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M395" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -16684,6 +19058,12 @@
       <c r="K396" t="n">
         <v>6.550000000000001</v>
       </c>
+      <c r="L396" t="n">
+        <v>105.6038</v>
+      </c>
+      <c r="M396" t="n">
+        <v>21.3089</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -16725,6 +19105,12 @@
       <c r="K397" t="n">
         <v>6.85</v>
       </c>
+      <c r="L397" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M397" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -16766,6 +19152,12 @@
       <c r="K398" t="n">
         <v>6.85</v>
       </c>
+      <c r="L398" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M398" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -16807,6 +19199,12 @@
       <c r="K399" t="n">
         <v>8.85</v>
       </c>
+      <c r="L399" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M399" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -16848,6 +19246,12 @@
       <c r="K400" t="n">
         <v>4.75</v>
       </c>
+      <c r="L400" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M400" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -16889,6 +19293,12 @@
       <c r="K401" t="n">
         <v>4.65</v>
       </c>
+      <c r="L401" t="n">
+        <v>107.0829</v>
+      </c>
+      <c r="M401" t="n">
+        <v>21.0064</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -16930,6 +19340,12 @@
       <c r="K402" t="n">
         <v>9.25</v>
       </c>
+      <c r="L402" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M402" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -16971,6 +19387,12 @@
       <c r="K403" t="n">
         <v>9.15</v>
       </c>
+      <c r="L403" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M403" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -17012,6 +19434,12 @@
       <c r="K404" t="n">
         <v>8.050000000000001</v>
       </c>
+      <c r="L404" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M404" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -17053,6 +19481,12 @@
       <c r="K405" t="n">
         <v>5.5</v>
       </c>
+      <c r="L405" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M405" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -17094,6 +19528,12 @@
       <c r="K406" t="n">
         <v>5.949999999999999</v>
       </c>
+      <c r="L406" t="n">
+        <v>106.199</v>
+      </c>
+      <c r="M406" t="n">
+        <v>21.273</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -17135,6 +19575,12 @@
       <c r="K407" t="n">
         <v>6.9</v>
       </c>
+      <c r="L407" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M407" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -17176,6 +19622,12 @@
       <c r="K408" t="n">
         <v>6.4</v>
       </c>
+      <c r="L408" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M408" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -17217,6 +19669,12 @@
       <c r="K409" t="n">
         <v>8.15</v>
       </c>
+      <c r="L409" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M409" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -17258,6 +19716,12 @@
       <c r="K410" t="n">
         <v>5.75</v>
       </c>
+      <c r="L410" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M410" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -17299,6 +19763,12 @@
       <c r="K411" t="n">
         <v>6.25</v>
       </c>
+      <c r="L411" t="n">
+        <v>106.0783</v>
+      </c>
+      <c r="M411" t="n">
+        <v>21.1861</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -17340,6 +19810,12 @@
       <c r="K412" t="n">
         <v>7.85</v>
       </c>
+      <c r="L412" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M412" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -17381,6 +19857,12 @@
       <c r="K413" t="n">
         <v>7.050000000000001</v>
       </c>
+      <c r="L413" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M413" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -17422,6 +19904,12 @@
       <c r="K414" t="n">
         <v>8.25</v>
       </c>
+      <c r="L414" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M414" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -17463,6 +19951,12 @@
       <c r="K415" t="n">
         <v>4</v>
       </c>
+      <c r="L415" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M415" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -17504,6 +19998,12 @@
       <c r="K416" t="n">
         <v>5</v>
       </c>
+      <c r="L416" t="n">
+        <v>106.333</v>
+      </c>
+      <c r="M416" t="n">
+        <v>20.9403</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -17545,6 +20045,12 @@
       <c r="K417" t="n">
         <v>9.15</v>
       </c>
+      <c r="L417" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M417" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -17586,6 +20092,12 @@
       <c r="K418" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="L418" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M418" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -17627,6 +20139,12 @@
       <c r="K419" t="n">
         <v>10.4</v>
       </c>
+      <c r="L419" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M419" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -17668,6 +20186,12 @@
       <c r="K420" t="n">
         <v>4.5</v>
       </c>
+      <c r="L420" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M420" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -17709,6 +20233,12 @@
       <c r="K421" t="n">
         <v>6.55</v>
       </c>
+      <c r="L421" t="n">
+        <v>106.0511</v>
+      </c>
+      <c r="M421" t="n">
+        <v>20.6463</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -17750,6 +20280,12 @@
       <c r="K422" t="n">
         <v>6.65</v>
       </c>
+      <c r="L422" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M422" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -17791,6 +20327,12 @@
       <c r="K423" t="n">
         <v>10.15</v>
       </c>
+      <c r="L423" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M423" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -17832,6 +20374,12 @@
       <c r="K424" t="n">
         <v>9.6</v>
       </c>
+      <c r="L424" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M424" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -17873,6 +20421,12 @@
       <c r="K425" t="n">
         <v>7</v>
       </c>
+      <c r="L425" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M425" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -17914,6 +20468,12 @@
       <c r="K426" t="n">
         <v>5.3</v>
       </c>
+      <c r="L426" t="n">
+        <v>105.3385</v>
+      </c>
+      <c r="M426" t="n">
+        <v>20.6861</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -17955,6 +20515,12 @@
       <c r="K427" t="n">
         <v>6.85</v>
       </c>
+      <c r="L427" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M427" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -17996,6 +20562,12 @@
       <c r="K428" t="n">
         <v>8.200000000000001</v>
       </c>
+      <c r="L428" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M428" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -18037,6 +20609,12 @@
       <c r="K429" t="n">
         <v>10.8</v>
       </c>
+      <c r="L429" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M429" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -18078,6 +20656,12 @@
       <c r="K430" t="n">
         <v>6.25</v>
       </c>
+      <c r="L430" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M430" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -18119,6 +20703,12 @@
       <c r="K431" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="L431" t="n">
+        <v>106.016</v>
+      </c>
+      <c r="M431" t="n">
+        <v>20.5835</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -18160,6 +20750,12 @@
       <c r="K432" t="n">
         <v>7.85</v>
       </c>
+      <c r="L432" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M432" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -18201,6 +20797,12 @@
       <c r="K433" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="L433" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M433" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -18242,6 +20844,12 @@
       <c r="K434" t="n">
         <v>5.8</v>
       </c>
+      <c r="L434" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M434" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -18283,6 +20891,12 @@
       <c r="K435" t="n">
         <v>9</v>
       </c>
+      <c r="L435" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M435" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -18324,6 +20938,12 @@
       <c r="K436" t="n">
         <v>6.65</v>
       </c>
+      <c r="L436" t="n">
+        <v>106.1621</v>
+      </c>
+      <c r="M436" t="n">
+        <v>20.42</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -18365,6 +20985,12 @@
       <c r="K437" t="n">
         <v>8.15</v>
       </c>
+      <c r="L437" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M437" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -18406,6 +21032,12 @@
       <c r="K438" t="n">
         <v>8.25</v>
       </c>
+      <c r="L438" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M438" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -18447,6 +21079,12 @@
       <c r="K439" t="n">
         <v>8.15</v>
       </c>
+      <c r="L439" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M439" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -18488,6 +21126,12 @@
       <c r="K440" t="n">
         <v>5</v>
       </c>
+      <c r="L440" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M440" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -18529,6 +21173,12 @@
       <c r="K441" t="n">
         <v>6.35</v>
       </c>
+      <c r="L441" t="n">
+        <v>106.335</v>
+      </c>
+      <c r="M441" t="n">
+        <v>20.4461</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -18570,6 +21220,12 @@
       <c r="K442" t="n">
         <v>6.3</v>
       </c>
+      <c r="L442" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M442" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -18611,6 +21267,12 @@
       <c r="K443" t="n">
         <v>7.5</v>
       </c>
+      <c r="L443" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M443" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -18652,6 +21314,12 @@
       <c r="K444" t="n">
         <v>7.3</v>
       </c>
+      <c r="L444" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M444" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -18693,6 +21361,12 @@
       <c r="K445" t="n">
         <v>7</v>
       </c>
+      <c r="L445" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M445" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -18734,6 +21408,12 @@
       <c r="K446" t="n">
         <v>6.699999999999999</v>
       </c>
+      <c r="L446" t="n">
+        <v>105.974</v>
+      </c>
+      <c r="M446" t="n">
+        <v>20.2515</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -18775,6 +21455,12 @@
       <c r="K447" t="n">
         <v>7.4</v>
       </c>
+      <c r="L447" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M447" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -18816,6 +21502,12 @@
       <c r="K448" t="n">
         <v>7.4</v>
       </c>
+      <c r="L448" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M448" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -18857,6 +21549,12 @@
       <c r="K449" t="n">
         <v>7.6</v>
       </c>
+      <c r="L449" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M449" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -18898,6 +21596,12 @@
       <c r="K450" t="n">
         <v>5.5</v>
       </c>
+      <c r="L450" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M450" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -18939,6 +21643,12 @@
       <c r="K451" t="n">
         <v>6.199999999999999</v>
       </c>
+      <c r="L451" t="n">
+        <v>105.7769</v>
+      </c>
+      <c r="M451" t="n">
+        <v>19.8067</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -18980,6 +21690,12 @@
       <c r="K452" t="n">
         <v>6.15</v>
       </c>
+      <c r="L452" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M452" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -19021,6 +21737,12 @@
       <c r="K453" t="n">
         <v>6.4</v>
       </c>
+      <c r="L453" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M453" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -19062,6 +21784,12 @@
       <c r="K454" t="n">
         <v>7.4</v>
       </c>
+      <c r="L454" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M454" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -19103,6 +21831,12 @@
       <c r="K455" t="n">
         <v>6</v>
       </c>
+      <c r="L455" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M455" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -19144,6 +21878,12 @@
       <c r="K456" t="n">
         <v>4.65</v>
       </c>
+      <c r="L456" t="n">
+        <v>105.693</v>
+      </c>
+      <c r="M456" t="n">
+        <v>19.2343</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -19151,7 +21891,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -19185,6 +21925,12 @@
       <c r="K457" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="L457" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M457" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -19192,7 +21938,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -19226,6 +21972,12 @@
       <c r="K458" t="n">
         <v>8.85</v>
       </c>
+      <c r="L458" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M458" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -19233,7 +21985,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -19267,6 +22019,12 @@
       <c r="K459" t="n">
         <v>11.05</v>
       </c>
+      <c r="L459" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M459" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -19274,7 +22032,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -19308,6 +22066,12 @@
       <c r="K460" t="n">
         <v>6.5</v>
       </c>
+      <c r="L460" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M460" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -19315,7 +22079,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -19349,6 +22113,12 @@
       <c r="K461" t="n">
         <v>6.9</v>
       </c>
+      <c r="L461" t="n">
+        <v>105.9063</v>
+      </c>
+      <c r="M461" t="n">
+        <v>18.3535</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -19390,6 +22160,12 @@
       <c r="K462" t="n">
         <v>9.85</v>
       </c>
+      <c r="L462" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M462" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -19431,6 +22207,12 @@
       <c r="K463" t="n">
         <v>9.35</v>
       </c>
+      <c r="L463" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M463" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -19472,6 +22254,12 @@
       <c r="K464" t="n">
         <v>11.2</v>
       </c>
+      <c r="L464" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M464" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -19513,6 +22301,12 @@
       <c r="K465" t="n">
         <v>6</v>
       </c>
+      <c r="L465" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M465" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -19554,6 +22348,12 @@
       <c r="K466" t="n">
         <v>6.7</v>
       </c>
+      <c r="L466" t="n">
+        <v>106.6291</v>
+      </c>
+      <c r="M466" t="n">
+        <v>17.4685</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -19595,6 +22395,12 @@
       <c r="K467" t="n">
         <v>7.85</v>
       </c>
+      <c r="L467" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M467" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -19636,6 +22442,12 @@
       <c r="K468" t="n">
         <v>7.300000000000001</v>
       </c>
+      <c r="L468" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M468" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -19677,6 +22489,12 @@
       <c r="K469" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L469" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M469" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -19718,6 +22536,12 @@
       <c r="K470" t="n">
         <v>3.75</v>
       </c>
+      <c r="L470" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M470" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -19759,6 +22583,12 @@
       <c r="K471" t="n">
         <v>5.5</v>
       </c>
+      <c r="L471" t="n">
+        <v>107.2022</v>
+      </c>
+      <c r="M471" t="n">
+        <v>16.7403</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -19771,7 +22601,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -19800,6 +22630,12 @@
       <c r="K472" t="n">
         <v>8.65</v>
       </c>
+      <c r="L472" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M472" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -19812,7 +22648,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -19841,6 +22677,12 @@
       <c r="K473" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L473" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M473" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -19853,7 +22695,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -19882,6 +22724,12 @@
       <c r="K474" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="L474" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M474" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -19894,7 +22742,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -19923,6 +22771,12 @@
       <c r="K475" t="n">
         <v>6</v>
       </c>
+      <c r="L475" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M475" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -19935,7 +22789,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Thừa Thiên - Huế</t>
+          <t>Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -19964,6 +22818,12 @@
       <c r="K476" t="n">
         <v>6.4</v>
       </c>
+      <c r="L476" t="n">
+        <v>107.5787</v>
+      </c>
+      <c r="M476" t="n">
+        <v>16.4637</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -20005,6 +22865,12 @@
       <c r="K477" t="n">
         <v>7.65</v>
       </c>
+      <c r="L477" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M477" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -20046,6 +22912,12 @@
       <c r="K478" t="n">
         <v>7.5</v>
       </c>
+      <c r="L478" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M478" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -20087,6 +22959,12 @@
       <c r="K479" t="n">
         <v>6.95</v>
       </c>
+      <c r="L479" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M479" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -20128,6 +23006,12 @@
       <c r="K480" t="n">
         <v>5.75</v>
       </c>
+      <c r="L480" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M480" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -20169,6 +23053,12 @@
       <c r="K481" t="n">
         <v>5.3</v>
       </c>
+      <c r="L481" t="n">
+        <v>108.1094</v>
+      </c>
+      <c r="M481" t="n">
+        <v>15.5394</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -20210,6 +23100,12 @@
       <c r="K482" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L482" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M482" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -20251,6 +23147,12 @@
       <c r="K483" t="n">
         <v>9.050000000000001</v>
       </c>
+      <c r="L483" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M483" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -20292,6 +23194,12 @@
       <c r="K484" t="n">
         <v>9.85</v>
       </c>
+      <c r="L484" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M484" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -20333,6 +23241,12 @@
       <c r="K485" t="n">
         <v>4.75</v>
       </c>
+      <c r="L485" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M485" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -20374,6 +23288,12 @@
       <c r="K486" t="n">
         <v>5.800000000000001</v>
       </c>
+      <c r="L486" t="n">
+        <v>108.8036</v>
+      </c>
+      <c r="M486" t="n">
+        <v>15.1205</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -20415,6 +23335,12 @@
       <c r="K487" t="n">
         <v>9.35</v>
       </c>
+      <c r="L487" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M487" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -20456,6 +23382,12 @@
       <c r="K488" t="n">
         <v>9.5</v>
       </c>
+      <c r="L488" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M488" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -20497,6 +23429,12 @@
       <c r="K489" t="n">
         <v>11.15</v>
       </c>
+      <c r="L489" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M489" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -20538,6 +23476,12 @@
       <c r="K490" t="n">
         <v>7</v>
       </c>
+      <c r="L490" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M490" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -20579,6 +23523,12 @@
       <c r="K491" t="n">
         <v>6.45</v>
       </c>
+      <c r="L491" t="n">
+        <v>107.988</v>
+      </c>
+      <c r="M491" t="n">
+        <v>14.35</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -20620,6 +23570,12 @@
       <c r="K492" t="n">
         <v>8.85</v>
       </c>
+      <c r="L492" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M492" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -20661,6 +23617,12 @@
       <c r="K493" t="n">
         <v>9.449999999999999</v>
       </c>
+      <c r="L493" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M493" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -20702,6 +23664,12 @@
       <c r="K494" t="n">
         <v>10.1</v>
       </c>
+      <c r="L494" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M494" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -20743,6 +23711,12 @@
       <c r="K495" t="n">
         <v>6.5</v>
       </c>
+      <c r="L495" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M495" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -20784,6 +23758,12 @@
       <c r="K496" t="n">
         <v>5.2</v>
       </c>
+      <c r="L496" t="n">
+        <v>109.1863</v>
+      </c>
+      <c r="M496" t="n">
+        <v>13.7821</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -20825,6 +23805,12 @@
       <c r="K497" t="n">
         <v>7.9</v>
       </c>
+      <c r="L497" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M497" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -20866,6 +23852,12 @@
       <c r="K498" t="n">
         <v>8.1</v>
       </c>
+      <c r="L498" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M498" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -20907,6 +23899,12 @@
       <c r="K499" t="n">
         <v>8.9</v>
       </c>
+      <c r="L499" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M499" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -20948,6 +23946,12 @@
       <c r="K500" t="n">
         <v>5.5</v>
       </c>
+      <c r="L500" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M500" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -20989,6 +23993,12 @@
       <c r="K501" t="n">
         <v>5.25</v>
       </c>
+      <c r="L501" t="n">
+        <v>108.036</v>
+      </c>
+      <c r="M501" t="n">
+        <v>13.9653</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -21030,6 +24040,12 @@
       <c r="K502" t="n">
         <v>8.4</v>
       </c>
+      <c r="L502" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M502" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -21071,6 +24087,12 @@
       <c r="K503" t="n">
         <v>7.1</v>
       </c>
+      <c r="L503" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M503" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -21112,6 +24134,12 @@
       <c r="K504" t="n">
         <v>7.15</v>
       </c>
+      <c r="L504" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M504" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -21153,6 +24181,12 @@
       <c r="K505" t="n">
         <v>5.5</v>
       </c>
+      <c r="L505" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M505" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -21194,6 +24228,12 @@
       <c r="K506" t="n">
         <v>5.1</v>
       </c>
+      <c r="L506" t="n">
+        <v>109.3088</v>
+      </c>
+      <c r="M506" t="n">
+        <v>13.0882</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -21235,6 +24275,12 @@
       <c r="K507" t="n">
         <v>6</v>
       </c>
+      <c r="L507" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M507" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -21276,6 +24322,12 @@
       <c r="K508" t="n">
         <v>5.95</v>
       </c>
+      <c r="L508" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M508" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -21317,6 +24369,12 @@
       <c r="K509" t="n">
         <v>7.6</v>
       </c>
+      <c r="L509" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M509" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -21358,6 +24416,12 @@
       <c r="K510" t="n">
         <v>4.25</v>
       </c>
+      <c r="L510" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M510" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -21399,6 +24463,12 @@
       <c r="K511" t="n">
         <v>5.1</v>
       </c>
+      <c r="L511" t="n">
+        <v>108.0838</v>
+      </c>
+      <c r="M511" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -21440,6 +24510,12 @@
       <c r="K512" t="n">
         <v>7.6</v>
       </c>
+      <c r="L512" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M512" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -21481,6 +24557,12 @@
       <c r="K513" t="n">
         <v>6.95</v>
       </c>
+      <c r="L513" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M513" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -21522,6 +24604,12 @@
       <c r="K514" t="n">
         <v>7.85</v>
       </c>
+      <c r="L514" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M514" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -21563,6 +24651,12 @@
       <c r="K515" t="n">
         <v>5.5</v>
       </c>
+      <c r="L515" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M515" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -21604,6 +24698,12 @@
       <c r="K516" t="n">
         <v>5.75</v>
       </c>
+      <c r="L516" t="n">
+        <v>109.1927</v>
+      </c>
+      <c r="M516" t="n">
+        <v>12.2388</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -21645,6 +24745,12 @@
       <c r="K517" t="n">
         <v>8</v>
       </c>
+      <c r="L517" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M517" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -21686,6 +24792,12 @@
       <c r="K518" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="L518" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M518" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -21727,6 +24839,12 @@
       <c r="K519" t="n">
         <v>9.75</v>
       </c>
+      <c r="L519" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M519" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -21768,6 +24886,12 @@
       <c r="K520" t="n">
         <v>5.75</v>
       </c>
+      <c r="L520" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M520" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -21809,6 +24933,12 @@
       <c r="K521" t="n">
         <v>7.7</v>
       </c>
+      <c r="L521" t="n">
+        <v>108.4428</v>
+      </c>
+      <c r="M521" t="n">
+        <v>11.9416</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -21850,6 +24980,12 @@
       <c r="K522" t="n">
         <v>7.1</v>
       </c>
+      <c r="L522" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M522" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -21891,6 +25027,12 @@
       <c r="K523" t="n">
         <v>7.35</v>
       </c>
+      <c r="L523" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M523" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -21932,6 +25074,12 @@
       <c r="K524" t="n">
         <v>7.55</v>
       </c>
+      <c r="L524" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M524" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -21973,6 +25121,12 @@
       <c r="K525" t="n">
         <v>3.5</v>
       </c>
+      <c r="L525" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M525" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -22014,6 +25168,12 @@
       <c r="K526" t="n">
         <v>6.7</v>
       </c>
+      <c r="L526" t="n">
+        <v>106.9228</v>
+      </c>
+      <c r="M526" t="n">
+        <v>11.7504</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -22055,6 +25215,12 @@
       <c r="K527" t="n">
         <v>6.15</v>
       </c>
+      <c r="L527" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M527" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -22096,6 +25262,12 @@
       <c r="K528" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="L528" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M528" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -22137,6 +25309,12 @@
       <c r="K529" t="n">
         <v>9.949999999999999</v>
       </c>
+      <c r="L529" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M529" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -22178,6 +25356,12 @@
       <c r="K530" t="n">
         <v>3.75</v>
       </c>
+      <c r="L530" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M530" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -22219,6 +25403,12 @@
       <c r="K531" t="n">
         <v>6.8</v>
       </c>
+      <c r="L531" t="n">
+        <v>106.652</v>
+      </c>
+      <c r="M531" t="n">
+        <v>11.0868</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -22260,6 +25450,12 @@
       <c r="K532" t="n">
         <v>7.85</v>
       </c>
+      <c r="L532" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M532" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -22301,6 +25497,12 @@
       <c r="K533" t="n">
         <v>7.45</v>
       </c>
+      <c r="L533" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M533" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -22342,6 +25544,12 @@
       <c r="K534" t="n">
         <v>10.1</v>
       </c>
+      <c r="L534" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M534" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -22383,6 +25591,12 @@
       <c r="K535" t="n">
         <v>7.5</v>
       </c>
+      <c r="L535" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M535" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -22424,6 +25638,12 @@
       <c r="K536" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="L536" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="M536" t="n">
+        <v>11.565</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -22465,6 +25685,12 @@
       <c r="K537" t="n">
         <v>8.9</v>
       </c>
+      <c r="L537" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M537" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -22506,6 +25732,12 @@
       <c r="K538" t="n">
         <v>8.75</v>
       </c>
+      <c r="L538" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M538" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -22547,6 +25779,12 @@
       <c r="K539" t="n">
         <v>8.25</v>
       </c>
+      <c r="L539" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M539" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -22588,6 +25826,12 @@
       <c r="K540" t="n">
         <v>3</v>
       </c>
+      <c r="L540" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M540" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -22629,6 +25873,12 @@
       <c r="K541" t="n">
         <v>7.8</v>
       </c>
+      <c r="L541" t="n">
+        <v>106.1257</v>
+      </c>
+      <c r="M541" t="n">
+        <v>11.3545</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -22670,6 +25920,12 @@
       <c r="K542" t="n">
         <v>8.25</v>
       </c>
+      <c r="L542" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M542" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -22711,6 +25967,12 @@
       <c r="K543" t="n">
         <v>8.9</v>
       </c>
+      <c r="L543" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M543" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -22752,6 +26014,12 @@
       <c r="K544" t="n">
         <v>11.65</v>
       </c>
+      <c r="L544" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M544" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -22793,6 +26061,12 @@
       <c r="K545" t="n">
         <v>3.25</v>
       </c>
+      <c r="L545" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M545" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -22834,6 +26108,12 @@
       <c r="K546" t="n">
         <v>7.600000000000001</v>
       </c>
+      <c r="L546" t="n">
+        <v>108.0969</v>
+      </c>
+      <c r="M546" t="n">
+        <v>11.0903</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -22875,6 +26155,12 @@
       <c r="K547" t="n">
         <v>5.25</v>
       </c>
+      <c r="L547" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M547" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -22916,6 +26202,12 @@
       <c r="K548" t="n">
         <v>7.6</v>
       </c>
+      <c r="L548" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M548" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -22957,6 +26249,12 @@
       <c r="K549" t="n">
         <v>6.5</v>
       </c>
+      <c r="L549" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M549" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -22998,6 +26296,12 @@
       <c r="K550" t="n">
         <v>5.25</v>
       </c>
+      <c r="L550" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M550" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -23039,6 +26343,12 @@
       <c r="K551" t="n">
         <v>6.199999999999999</v>
       </c>
+      <c r="L551" t="n">
+        <v>107.1689</v>
+      </c>
+      <c r="M551" t="n">
+        <v>10.9447</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -23080,6 +26390,12 @@
       <c r="K552" t="n">
         <v>7.1</v>
       </c>
+      <c r="L552" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M552" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -23121,6 +26437,12 @@
       <c r="K553" t="n">
         <v>7.949999999999999</v>
       </c>
+      <c r="L553" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M553" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -23162,6 +26484,12 @@
       <c r="K554" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="L554" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M554" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -23203,6 +26531,12 @@
       <c r="K555" t="n">
         <v>0</v>
       </c>
+      <c r="L555" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M555" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -23244,6 +26578,12 @@
       <c r="K556" t="n">
         <v>7</v>
       </c>
+      <c r="L556" t="n">
+        <v>106.1237</v>
+      </c>
+      <c r="M556" t="n">
+        <v>10.5359</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -23285,6 +26625,12 @@
       <c r="K557" t="n">
         <v>8.4</v>
       </c>
+      <c r="L557" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M557" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -23326,6 +26672,12 @@
       <c r="K558" t="n">
         <v>7.8</v>
       </c>
+      <c r="L558" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M558" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -23367,6 +26719,12 @@
       <c r="K559" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L559" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M559" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -23408,6 +26766,12 @@
       <c r="K560" t="n">
         <v>6.5</v>
       </c>
+      <c r="L560" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M560" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -23449,6 +26813,12 @@
       <c r="K561" t="n">
         <v>7.85</v>
       </c>
+      <c r="L561" t="n">
+        <v>105.7415</v>
+      </c>
+      <c r="M561" t="n">
+        <v>10.472</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -23490,6 +26860,12 @@
       <c r="K562" t="n">
         <v>7.7</v>
       </c>
+      <c r="L562" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M562" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -23531,6 +26907,12 @@
       <c r="K563" t="n">
         <v>7.6</v>
       </c>
+      <c r="L563" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M563" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -23572,6 +26954,12 @@
       <c r="K564" t="n">
         <v>10.45</v>
       </c>
+      <c r="L564" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M564" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -23613,6 +27001,12 @@
       <c r="K565" t="n">
         <v>6.25</v>
       </c>
+      <c r="L565" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M565" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -23654,6 +27048,12 @@
       <c r="K566" t="n">
         <v>7.15</v>
       </c>
+      <c r="L566" t="n">
+        <v>105.4306</v>
+      </c>
+      <c r="M566" t="n">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -23666,7 +27066,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -23695,6 +27095,12 @@
       <c r="K567" t="n">
         <v>6.85</v>
       </c>
+      <c r="L567" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M567" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -23707,7 +27113,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -23736,6 +27142,12 @@
       <c r="K568" t="n">
         <v>8.649999999999999</v>
       </c>
+      <c r="L568" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M568" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -23748,7 +27160,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -23777,6 +27189,12 @@
       <c r="K569" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L569" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M569" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -23789,7 +27207,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -23818,6 +27236,12 @@
       <c r="K570" t="n">
         <v>6.25</v>
       </c>
+      <c r="L570" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M570" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -23830,7 +27254,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Bà Rịa – Vũng Tàu</t>
+          <t>Bà Rịa Vũng Tàu</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -23859,6 +27283,12 @@
       <c r="K571" t="n">
         <v>8.15</v>
       </c>
+      <c r="L571" t="n">
+        <v>107.0843</v>
+      </c>
+      <c r="M571" t="n">
+        <v>10.5417</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -23900,6 +27330,12 @@
       <c r="K572" t="n">
         <v>8.6</v>
       </c>
+      <c r="L572" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M572" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -23941,6 +27377,12 @@
       <c r="K573" t="n">
         <v>6.95</v>
       </c>
+      <c r="L573" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M573" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -23982,6 +27424,12 @@
       <c r="K574" t="n">
         <v>9.949999999999999</v>
       </c>
+      <c r="L574" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M574" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -24023,6 +27471,12 @@
       <c r="K575" t="n">
         <v>7.5</v>
       </c>
+      <c r="L575" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M575" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -24064,6 +27518,12 @@
       <c r="K576" t="n">
         <v>7.800000000000001</v>
       </c>
+      <c r="L576" t="n">
+        <v>106.3637</v>
+      </c>
+      <c r="M576" t="n">
+        <v>10.3755</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -24105,6 +27565,12 @@
       <c r="K577" t="n">
         <v>7.2</v>
       </c>
+      <c r="L577" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M577" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -24146,6 +27612,12 @@
       <c r="K578" t="n">
         <v>6.85</v>
       </c>
+      <c r="L578" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M578" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -24187,6 +27659,12 @@
       <c r="K579" t="n">
         <v>8.1</v>
       </c>
+      <c r="L579" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M579" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -24228,6 +27706,12 @@
       <c r="K580" t="n">
         <v>8</v>
       </c>
+      <c r="L580" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M580" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -24269,6 +27753,12 @@
       <c r="K581" t="n">
         <v>7.2</v>
       </c>
+      <c r="L581" t="n">
+        <v>105.0848</v>
+      </c>
+      <c r="M581" t="n">
+        <v>10.0121</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -24310,6 +27800,12 @@
       <c r="K582" t="n">
         <v>7.9</v>
       </c>
+      <c r="L582" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M582" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -24351,6 +27847,12 @@
       <c r="K583" t="n">
         <v>6.850000000000001</v>
       </c>
+      <c r="L583" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M583" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -24392,6 +27894,12 @@
       <c r="K584" t="n">
         <v>4.5</v>
       </c>
+      <c r="L584" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M584" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -24433,6 +27941,12 @@
       <c r="K585" t="n">
         <v>7.75</v>
       </c>
+      <c r="L585" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M585" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -24474,6 +27988,12 @@
       <c r="K586" t="n">
         <v>6.85</v>
       </c>
+      <c r="L586" t="n">
+        <v>105.7209</v>
+      </c>
+      <c r="M586" t="n">
+        <v>10.0452</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -24515,6 +28035,12 @@
       <c r="K587" t="n">
         <v>8.5</v>
       </c>
+      <c r="L587" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M587" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -24556,6 +28082,12 @@
       <c r="K588" t="n">
         <v>7.7</v>
       </c>
+      <c r="L588" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M588" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -24597,6 +28129,12 @@
       <c r="K589" t="n">
         <v>9.25</v>
       </c>
+      <c r="L589" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M589" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -24638,6 +28176,12 @@
       <c r="K590" t="n">
         <v>8</v>
       </c>
+      <c r="L590" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M590" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -24679,6 +28223,12 @@
       <c r="K591" t="n">
         <v>6.75</v>
       </c>
+      <c r="L591" t="n">
+        <v>106.3771</v>
+      </c>
+      <c r="M591" t="n">
+        <v>10.2433</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -24720,6 +28270,12 @@
       <c r="K592" t="n">
         <v>7.45</v>
       </c>
+      <c r="L592" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M592" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -24761,6 +28317,12 @@
       <c r="K593" t="n">
         <v>10.35</v>
       </c>
+      <c r="L593" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M593" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -24802,6 +28364,12 @@
       <c r="K594" t="n">
         <v>11.45</v>
       </c>
+      <c r="L594" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M594" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -24843,6 +28411,12 @@
       <c r="K595" t="n">
         <v>8.5</v>
       </c>
+      <c r="L595" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M595" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -24884,6 +28458,12 @@
       <c r="K596" t="n">
         <v>8</v>
       </c>
+      <c r="L596" t="n">
+        <v>106.0055</v>
+      </c>
+      <c r="M596" t="n">
+        <v>10.2537</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -24925,6 +28505,12 @@
       <c r="K597" t="n">
         <v>7.95</v>
       </c>
+      <c r="L597" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M597" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -24966,6 +28552,12 @@
       <c r="K598" t="n">
         <v>7</v>
       </c>
+      <c r="L598" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M598" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -25007,6 +28599,12 @@
       <c r="K599" t="n">
         <v>7.75</v>
       </c>
+      <c r="L599" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M599" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -25048,6 +28646,12 @@
       <c r="K600" t="n">
         <v>7.25</v>
       </c>
+      <c r="L600" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M600" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -25089,6 +28693,12 @@
       <c r="K601" t="n">
         <v>6.85</v>
       </c>
+      <c r="L601" t="n">
+        <v>106.3449</v>
+      </c>
+      <c r="M601" t="n">
+        <v>9.9377</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -25130,6 +28740,12 @@
       <c r="K602" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="L602" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M602" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -25171,6 +28787,12 @@
       <c r="K603" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L603" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M603" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -25212,6 +28834,12 @@
       <c r="K604" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="L604" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M604" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -25253,6 +28881,12 @@
       <c r="K605" t="n">
         <v>7</v>
       </c>
+      <c r="L605" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M605" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -25294,6 +28928,12 @@
       <c r="K606" t="n">
         <v>7.4</v>
       </c>
+      <c r="L606" t="n">
+        <v>105.9803</v>
+      </c>
+      <c r="M606" t="n">
+        <v>9.6035</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -25335,6 +28975,12 @@
       <c r="K607" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L607" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M607" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -25376,6 +29022,12 @@
       <c r="K608" t="n">
         <v>7.699999999999999</v>
       </c>
+      <c r="L608" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M608" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -25417,6 +29069,12 @@
       <c r="K609" t="n">
         <v>8.6</v>
       </c>
+      <c r="L609" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M609" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -25458,6 +29116,12 @@
       <c r="K610" t="n">
         <v>9.5</v>
       </c>
+      <c r="L610" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M610" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -25499,6 +29163,12 @@
       <c r="K611" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="L611" t="n">
+        <v>105.7245</v>
+      </c>
+      <c r="M611" t="n">
+        <v>9.276300000000001</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -25540,6 +29210,12 @@
       <c r="K612" t="n">
         <v>6.7</v>
       </c>
+      <c r="L612" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M612" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -25581,6 +29257,12 @@
       <c r="K613" t="n">
         <v>7.35</v>
       </c>
+      <c r="L613" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M613" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -25622,6 +29304,12 @@
       <c r="K614" t="n">
         <v>7.15</v>
       </c>
+      <c r="L614" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M614" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -25663,6 +29351,12 @@
       <c r="K615" t="n">
         <v>5.75</v>
       </c>
+      <c r="L615" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M615" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -25704,6 +29398,12 @@
       <c r="K616" t="n">
         <v>6.45</v>
       </c>
+      <c r="L616" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M616" t="n">
+        <v>9.1769</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -25745,6 +29445,12 @@
       <c r="K617" t="n">
         <v>8</v>
       </c>
+      <c r="L617" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M617" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -25786,6 +29492,12 @@
       <c r="K618" t="n">
         <v>9.449999999999999</v>
       </c>
+      <c r="L618" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M618" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -25827,6 +29539,12 @@
       <c r="K619" t="n">
         <v>11.05</v>
       </c>
+      <c r="L619" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M619" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -25868,6 +29586,12 @@
       <c r="K620" t="n">
         <v>8.25</v>
       </c>
+      <c r="L620" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M620" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -25909,6 +29633,12 @@
       <c r="K621" t="n">
         <v>7.1</v>
       </c>
+      <c r="L621" t="n">
+        <v>103.0235</v>
+      </c>
+      <c r="M621" t="n">
+        <v>21.386</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -25921,7 +29651,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -25950,6 +29680,12 @@
       <c r="K622" t="n">
         <v>6.85</v>
       </c>
+      <c r="L622" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M622" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -25962,7 +29698,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -25991,6 +29727,12 @@
       <c r="K623" t="n">
         <v>7.8</v>
       </c>
+      <c r="L623" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M623" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -26003,7 +29745,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -26032,6 +29774,12 @@
       <c r="K624" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="L624" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M624" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -26044,7 +29792,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -26073,6 +29821,12 @@
       <c r="K625" t="n">
         <v>7</v>
       </c>
+      <c r="L625" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M625" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -26085,7 +29839,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Đăk Nông</t>
+          <t>Đắk Nông</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -26114,6 +29868,12 @@
       <c r="K626" t="n">
         <v>6.449999999999999</v>
       </c>
+      <c r="L626" t="n">
+        <v>107.7148</v>
+      </c>
+      <c r="M626" t="n">
+        <v>12.1888</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -26155,6 +29915,12 @@
       <c r="K627" t="n">
         <v>5</v>
       </c>
+      <c r="L627" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M627" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -26196,6 +29962,12 @@
       <c r="K628" t="n">
         <v>6.25</v>
       </c>
+      <c r="L628" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M628" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -26237,6 +30009,12 @@
       <c r="K629" t="n">
         <v>5.5</v>
       </c>
+      <c r="L629" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M629" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -26278,6 +30056,12 @@
       <c r="K630" t="n">
         <v>7.5</v>
       </c>
+      <c r="L630" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M630" t="n">
+        <v>9.7849</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -26318,6 +30102,12 @@
       </c>
       <c r="K631" t="n">
         <v>7.9</v>
+      </c>
+      <c r="L631" t="n">
+        <v>105.5552</v>
+      </c>
+      <c r="M631" t="n">
+        <v>9.7849</v>
       </c>
     </row>
   </sheetData>

--- a/processed/combination_statistics.xlsx
+++ b/processed/combination_statistics.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21468,7 +21468,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21609,7 +21609,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -21844,7 +21844,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -25510,7 +25510,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -25604,7 +25604,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -25933,7 +25933,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -25980,7 +25980,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -26074,7 +26074,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -29740,7 +29740,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -29834,7 +29834,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">

--- a/processed/combination_statistics.xlsx
+++ b/processed/combination_statistics.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination Statistics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thống kê tổ hợp" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Năm</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Khu vực</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Province</t>
+          <t>Tỉnh/Thành phố</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Combination</t>
+          <t>Tổ hợp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Number of Students</t>
+          <t>Số lượng thí sinh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Average Score</t>
+          <t>Điểm trung bình</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &lt; 15</t>
+          <t>Số lượng điểm &lt; 15</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &lt; 20</t>
+          <t>Số lượng điểm &lt; 20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &gt;= 27</t>
+          <t>Số lượng điểm &gt;= 27</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Max Score</t>
+          <t>Điểm cao nhất</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Min Score</t>
+          <t>Điểm thấp nhất</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Kinh độ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Vĩ độ</t>
         </is>
       </c>
     </row>

--- a/processed/combination_statistics.xlsx
+++ b/processed/combination_statistics.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thống kê tổ hợp" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combination Statistics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Năm</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Khu vực</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tỉnh/Thành phố</t>
+          <t>Province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tổ hợp</t>
+          <t>Combination</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng thí sinh</t>
+          <t>Number of Students</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Điểm trung bình</t>
+          <t>Average Score</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &lt; 15</t>
+          <t>Number of Scores &lt; 15</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &lt; 20</t>
+          <t>Number of Scores &lt; 20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &gt;= 27</t>
+          <t>Number of Scores &gt;= 27</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Điểm cao nhất</t>
+          <t>Max Score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Điểm thấp nhất</t>
+          <t>Min Score</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Kinh độ</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Vĩ độ</t>
+          <t>Latitude</t>
         </is>
       </c>
     </row>
@@ -946,22 +946,22 @@
         <v>55346</v>
       </c>
       <c r="F11" t="n">
-        <v>17.48627249485057</v>
+        <v>19.2555689059131</v>
       </c>
       <c r="G11" t="n">
-        <v>15606</v>
+        <v>9019</v>
       </c>
       <c r="H11" t="n">
-        <v>38572</v>
+        <v>30374</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J11" t="n">
-        <v>26.1375</v>
+        <v>28.45</v>
       </c>
       <c r="K11" t="n">
-        <v>5.55</v>
+        <v>6.466666666666666</v>
       </c>
       <c r="L11" t="n">
         <v>105.8342</v>
@@ -1416,22 +1416,22 @@
         <v>28657</v>
       </c>
       <c r="F21" t="n">
-        <v>17.95618653383118</v>
+        <v>19.74952891091182</v>
       </c>
       <c r="G21" t="n">
-        <v>5564</v>
+        <v>2592</v>
       </c>
       <c r="H21" t="n">
-        <v>20139</v>
+        <v>14672</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>26.0125</v>
+        <v>28.28333333333333</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7125</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="L21" t="n">
         <v>106.6297</v>
@@ -1886,22 +1886,22 @@
         <v>12384</v>
       </c>
       <c r="F31" t="n">
-        <v>17.82338905038759</v>
+        <v>19.73825904392765</v>
       </c>
       <c r="G31" t="n">
-        <v>2786</v>
+        <v>1391</v>
       </c>
       <c r="H31" t="n">
-        <v>8716</v>
+        <v>6462</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J31" t="n">
-        <v>26.0625</v>
+        <v>28.41666666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>6.987500000000001</v>
+        <v>8.25</v>
       </c>
       <c r="L31" t="n">
         <v>106.686</v>
@@ -2356,22 +2356,22 @@
         <v>5859</v>
       </c>
       <c r="F41" t="n">
-        <v>16.67891918416112</v>
+        <v>18.34701883142743</v>
       </c>
       <c r="G41" t="n">
-        <v>1927</v>
+        <v>1139</v>
       </c>
       <c r="H41" t="n">
-        <v>4631</v>
+        <v>3782</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>25.6875</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4125</v>
+        <v>6.016666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>108.2022</v>
@@ -2826,22 +2826,22 @@
         <v>4686</v>
       </c>
       <c r="F51" t="n">
-        <v>12.82885723431498</v>
+        <v>14.40074690567648</v>
       </c>
       <c r="G51" t="n">
-        <v>3563</v>
+        <v>2862</v>
       </c>
       <c r="H51" t="n">
-        <v>4523</v>
+        <v>4316</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>25.175</v>
+        <v>27.3</v>
       </c>
       <c r="K51" t="n">
-        <v>6.1</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="L51" t="n">
         <v>104.715</v>
@@ -3296,22 +3296,22 @@
         <v>3764</v>
       </c>
       <c r="F61" t="n">
-        <v>14.04811702975558</v>
+        <v>15.7634298618491</v>
       </c>
       <c r="G61" t="n">
-        <v>2391</v>
+        <v>1694</v>
       </c>
       <c r="H61" t="n">
-        <v>3550</v>
+        <v>3259</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>24.9125</v>
+        <v>27.01666666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>6.4375</v>
+        <v>7.25</v>
       </c>
       <c r="L61" t="n">
         <v>106.2522</v>
@@ -3766,22 +3766,22 @@
         <v>2596</v>
       </c>
       <c r="F71" t="n">
-        <v>14.9622688751926</v>
+        <v>16.71576784797124</v>
       </c>
       <c r="G71" t="n">
-        <v>1304</v>
+        <v>702</v>
       </c>
       <c r="H71" t="n">
-        <v>2515</v>
+        <v>2288</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>24.2875</v>
+        <v>26.51666666666667</v>
       </c>
       <c r="K71" t="n">
-        <v>7.0875</v>
+        <v>8.316666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>103.273</v>
@@ -4236,22 +4236,22 @@
         <v>5107</v>
       </c>
       <c r="F81" t="n">
-        <v>16.02810603093793</v>
+        <v>17.86910449709549</v>
       </c>
       <c r="G81" t="n">
-        <v>1906</v>
+        <v>1033</v>
       </c>
       <c r="H81" t="n">
-        <v>4571</v>
+        <v>3768</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>25.2125</v>
+        <v>27.48333333333333</v>
       </c>
       <c r="K81" t="n">
-        <v>5.9875</v>
+        <v>6.716666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>103.9706</v>
@@ -4706,22 +4706,22 @@
         <v>6724</v>
       </c>
       <c r="F91" t="n">
-        <v>15.44893850386674</v>
+        <v>17.26462671029149</v>
       </c>
       <c r="G91" t="n">
-        <v>3041</v>
+        <v>1648</v>
       </c>
       <c r="H91" t="n">
-        <v>6244</v>
+        <v>5529</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J91" t="n">
-        <v>25.725</v>
+        <v>28.1</v>
       </c>
       <c r="K91" t="n">
-        <v>6.3875</v>
+        <v>7.45</v>
       </c>
       <c r="L91" t="n">
         <v>105.2352</v>
@@ -5176,22 +5176,22 @@
         <v>6306</v>
       </c>
       <c r="F101" t="n">
-        <v>14.95077703774183</v>
+        <v>16.72918913204355</v>
       </c>
       <c r="G101" t="n">
-        <v>3320</v>
+        <v>2008</v>
       </c>
       <c r="H101" t="n">
-        <v>5858</v>
+        <v>5207</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>25.4875</v>
+        <v>27.71666666666667</v>
       </c>
       <c r="K101" t="n">
-        <v>6.837499999999999</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>106.7504</v>
@@ -5646,22 +5646,22 @@
         <v>2214</v>
       </c>
       <c r="F111" t="n">
-        <v>14.93191621499548</v>
+        <v>16.73830924420355</v>
       </c>
       <c r="G111" t="n">
-        <v>1177</v>
+        <v>741</v>
       </c>
       <c r="H111" t="n">
-        <v>2052</v>
+        <v>1829</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>24.375</v>
+        <v>26.5</v>
       </c>
       <c r="K111" t="n">
-        <v>7.35</v>
+        <v>8.266666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>105.8391</v>
@@ -6116,22 +6116,22 @@
         <v>9106</v>
       </c>
       <c r="F121" t="n">
-        <v>15.33305787392928</v>
+        <v>17.05461966468995</v>
       </c>
       <c r="G121" t="n">
-        <v>4464</v>
+        <v>2826</v>
       </c>
       <c r="H121" t="n">
-        <v>8112</v>
+        <v>7167</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J121" t="n">
-        <v>25.4125</v>
+        <v>27.78333333333333</v>
       </c>
       <c r="K121" t="n">
-        <v>6.3125</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>105.8526</v>
@@ -6586,22 +6586,22 @@
         <v>5753</v>
       </c>
       <c r="F131" t="n">
-        <v>15.50078654614984</v>
+        <v>17.23585955153833</v>
       </c>
       <c r="G131" t="n">
-        <v>2669</v>
+        <v>1586</v>
       </c>
       <c r="H131" t="n">
-        <v>5167</v>
+        <v>4501</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J131" t="n">
-        <v>25.55</v>
+        <v>27.8</v>
       </c>
       <c r="K131" t="n">
-        <v>4.65</v>
+        <v>5.4</v>
       </c>
       <c r="L131" t="n">
         <v>104.7116</v>
@@ -7056,22 +7056,22 @@
         <v>8560</v>
       </c>
       <c r="F141" t="n">
-        <v>14.25032564252336</v>
+        <v>15.99433605919003</v>
       </c>
       <c r="G141" t="n">
-        <v>5348</v>
+        <v>3393</v>
       </c>
       <c r="H141" t="n">
-        <v>8232</v>
+        <v>7637</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>24.6125</v>
+        <v>26.88333333333333</v>
       </c>
       <c r="K141" t="n">
-        <v>6.0125</v>
+        <v>6.95</v>
       </c>
       <c r="L141" t="n">
         <v>103.7289</v>
@@ -7526,22 +7526,22 @@
         <v>10259</v>
       </c>
       <c r="F151" t="n">
-        <v>16.87247782434935</v>
+        <v>18.77002306917504</v>
       </c>
       <c r="G151" t="n">
-        <v>2934</v>
+        <v>1263</v>
       </c>
       <c r="H151" t="n">
-        <v>8589</v>
+        <v>6607</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J151" t="n">
-        <v>25.5625</v>
+        <v>27.75</v>
       </c>
       <c r="K151" t="n">
-        <v>4.7125</v>
+        <v>5.483333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>105.2253</v>
@@ -7996,22 +7996,22 @@
         <v>6381</v>
       </c>
       <c r="F161" t="n">
-        <v>18.65615107349945</v>
+        <v>20.66594577652406</v>
       </c>
       <c r="G161" t="n">
-        <v>605</v>
+        <v>153</v>
       </c>
       <c r="H161" t="n">
-        <v>4360</v>
+        <v>2665</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J161" t="n">
-        <v>26.3375</v>
+        <v>28.65</v>
       </c>
       <c r="K161" t="n">
-        <v>9.0375</v>
+        <v>10.18333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>105.6038</v>
@@ -8466,22 +8466,22 @@
         <v>9929</v>
       </c>
       <c r="F171" t="n">
-        <v>16.04013244032632</v>
+        <v>17.78961627555645</v>
       </c>
       <c r="G171" t="n">
-        <v>3988</v>
+        <v>2507</v>
       </c>
       <c r="H171" t="n">
-        <v>8311</v>
+        <v>6954</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J171" t="n">
-        <v>25.925</v>
+        <v>28.3</v>
       </c>
       <c r="K171" t="n">
-        <v>6.1625</v>
+        <v>6.966666666666667</v>
       </c>
       <c r="L171" t="n">
         <v>107.0829</v>
@@ -8936,22 +8936,22 @@
         <v>12312</v>
       </c>
       <c r="F181" t="n">
-        <v>16.60669062703054</v>
+        <v>18.44482618583496</v>
       </c>
       <c r="G181" t="n">
-        <v>3895</v>
+        <v>1974</v>
       </c>
       <c r="H181" t="n">
-        <v>10423</v>
+        <v>8250</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J181" t="n">
-        <v>25.8</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="K181" t="n">
-        <v>6.2125</v>
+        <v>7.15</v>
       </c>
       <c r="L181" t="n">
         <v>106.199</v>
@@ -9406,22 +9406,22 @@
         <v>8158</v>
       </c>
       <c r="F191" t="n">
-        <v>17.32902059328267</v>
+        <v>19.1758274086786</v>
       </c>
       <c r="G191" t="n">
-        <v>2006</v>
+        <v>954</v>
       </c>
       <c r="H191" t="n">
-        <v>6295</v>
+        <v>4792</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J191" t="n">
-        <v>25.4875</v>
+        <v>27.71666666666667</v>
       </c>
       <c r="K191" t="n">
-        <v>6.7375</v>
+        <v>7.7</v>
       </c>
       <c r="L191" t="n">
         <v>106.0783</v>
@@ -9876,22 +9876,22 @@
         <v>11012</v>
       </c>
       <c r="F201" t="n">
-        <v>16.9606100163458</v>
+        <v>18.78614693062114</v>
       </c>
       <c r="G201" t="n">
-        <v>3213</v>
+        <v>1661</v>
       </c>
       <c r="H201" t="n">
-        <v>8785</v>
+        <v>6986</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J201" t="n">
-        <v>25.55</v>
+        <v>27.8</v>
       </c>
       <c r="K201" t="n">
-        <v>5.0625</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="L201" t="n">
         <v>106.333</v>
@@ -10346,22 +10346,22 @@
         <v>7366</v>
       </c>
       <c r="F211" t="n">
-        <v>16.48443354602226</v>
+        <v>18.22449769209883</v>
       </c>
       <c r="G211" t="n">
-        <v>2358</v>
+        <v>1184</v>
       </c>
       <c r="H211" t="n">
-        <v>6349</v>
+        <v>5304</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J211" t="n">
-        <v>25.2</v>
+        <v>27.45</v>
       </c>
       <c r="K211" t="n">
-        <v>6.4375</v>
+        <v>7.25</v>
       </c>
       <c r="L211" t="n">
         <v>106.0511</v>
@@ -10816,22 +10816,22 @@
         <v>7123</v>
       </c>
       <c r="F221" t="n">
-        <v>14.45762845711077</v>
+        <v>16.2251743179372</v>
       </c>
       <c r="G221" t="n">
-        <v>4271</v>
+        <v>2809</v>
       </c>
       <c r="H221" t="n">
-        <v>6691</v>
+        <v>6089</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J221" t="n">
-        <v>25.275</v>
+        <v>27.56666666666667</v>
       </c>
       <c r="K221" t="n">
-        <v>6.5625</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="L221" t="n">
         <v>105.3385</v>
@@ -11286,22 +11286,22 @@
         <v>4952</v>
       </c>
       <c r="F231" t="n">
-        <v>17.27701181340872</v>
+        <v>19.15804052234787</v>
       </c>
       <c r="G231" t="n">
-        <v>1162</v>
+        <v>471</v>
       </c>
       <c r="H231" t="n">
-        <v>3994</v>
+        <v>3022</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J231" t="n">
-        <v>25.8625</v>
+        <v>28.21666666666667</v>
       </c>
       <c r="K231" t="n">
-        <v>7.487500000000001</v>
+        <v>8.383333333333333</v>
       </c>
       <c r="L231" t="n">
         <v>106.016</v>
@@ -11756,22 +11756,22 @@
         <v>7604</v>
       </c>
       <c r="F241" t="n">
-        <v>18.38744575223567</v>
+        <v>20.34023101876205</v>
       </c>
       <c r="G241" t="n">
-        <v>1058</v>
+        <v>368</v>
       </c>
       <c r="H241" t="n">
-        <v>5178</v>
+        <v>3568</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J241" t="n">
-        <v>26.275</v>
+        <v>28.56666666666666</v>
       </c>
       <c r="K241" t="n">
-        <v>7.7625</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L241" t="n">
         <v>106.1621</v>
@@ -12226,22 +12226,22 @@
         <v>9116</v>
       </c>
       <c r="F251" t="n">
-        <v>16.94764288064941</v>
+        <v>18.80987457949393</v>
       </c>
       <c r="G251" t="n">
-        <v>2588</v>
+        <v>1179</v>
       </c>
       <c r="H251" t="n">
-        <v>7402</v>
+        <v>5908</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J251" t="n">
-        <v>25.7875</v>
+        <v>28.18333333333334</v>
       </c>
       <c r="K251" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="L251" t="n">
         <v>106.335</v>
@@ -12696,22 +12696,22 @@
         <v>5688</v>
       </c>
       <c r="F261" t="n">
-        <v>17.85941455696203</v>
+        <v>19.80988045007032</v>
       </c>
       <c r="G261" t="n">
-        <v>925</v>
+        <v>330</v>
       </c>
       <c r="H261" t="n">
-        <v>4404</v>
+        <v>2960</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J261" t="n">
-        <v>25.85</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="K261" t="n">
-        <v>5.7375</v>
+        <v>6.383333333333334</v>
       </c>
       <c r="L261" t="n">
         <v>105.974</v>
@@ -13166,22 +13166,22 @@
         <v>23051</v>
       </c>
       <c r="F271" t="n">
-        <v>15.23034575506485</v>
+        <v>16.99240235420011</v>
       </c>
       <c r="G271" t="n">
-        <v>11594</v>
+        <v>7408</v>
       </c>
       <c r="H271" t="n">
-        <v>20395</v>
+        <v>17971</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J271" t="n">
-        <v>26.05</v>
+        <v>28.46666666666667</v>
       </c>
       <c r="K271" t="n">
-        <v>5.425</v>
+        <v>5.966666666666667</v>
       </c>
       <c r="L271" t="n">
         <v>105.7769</v>
@@ -13636,22 +13636,22 @@
         <v>22621</v>
       </c>
       <c r="F281" t="n">
-        <v>15.41649628663631</v>
+        <v>17.18422778244404</v>
       </c>
       <c r="G281" t="n">
-        <v>10820</v>
+        <v>6325</v>
       </c>
       <c r="H281" t="n">
-        <v>20310</v>
+        <v>17747</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J281" t="n">
-        <v>25.425</v>
+        <v>27.63333333333334</v>
       </c>
       <c r="K281" t="n">
-        <v>6.050000000000001</v>
+        <v>6.833333333333334</v>
       </c>
       <c r="L281" t="n">
         <v>105.693</v>
@@ -14106,22 +14106,22 @@
         <v>10425</v>
       </c>
       <c r="F291" t="n">
-        <v>16.72939928057554</v>
+        <v>18.59974900079936</v>
       </c>
       <c r="G291" t="n">
-        <v>2937</v>
+        <v>1268</v>
       </c>
       <c r="H291" t="n">
-        <v>9000</v>
+        <v>7075</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J291" t="n">
-        <v>25.3</v>
+        <v>27.51666666666667</v>
       </c>
       <c r="K291" t="n">
-        <v>7.2875</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="L291" t="n">
         <v>105.9063</v>
@@ -14576,22 +14576,22 @@
         <v>8410</v>
       </c>
       <c r="F301" t="n">
-        <v>15.20138674197384</v>
+        <v>16.93702140309156</v>
       </c>
       <c r="G301" t="n">
-        <v>4138</v>
+        <v>2464</v>
       </c>
       <c r="H301" t="n">
-        <v>7757</v>
+        <v>6893</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="n">
-        <v>25.0375</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="K301" t="n">
-        <v>5.5875</v>
+        <v>6.316666666666666</v>
       </c>
       <c r="L301" t="n">
         <v>106.6291</v>
@@ -15046,22 +15046,22 @@
         <v>5428</v>
       </c>
       <c r="F311" t="n">
-        <v>14.63805959837877</v>
+        <v>16.30154446082043</v>
       </c>
       <c r="G311" t="n">
-        <v>3038</v>
+        <v>2079</v>
       </c>
       <c r="H311" t="n">
-        <v>4973</v>
+        <v>4506</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="n">
-        <v>25.125</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="K311" t="n">
-        <v>5.4875</v>
+        <v>6.35</v>
       </c>
       <c r="L311" t="n">
         <v>107.2022</v>
@@ -15516,22 +15516,22 @@
         <v>8312</v>
       </c>
       <c r="F321" t="n">
-        <v>15.60071282483157</v>
+        <v>17.30740696182226</v>
       </c>
       <c r="G321" t="n">
-        <v>3771</v>
+        <v>2353</v>
       </c>
       <c r="H321" t="n">
-        <v>7243</v>
+        <v>6272</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J321" t="n">
-        <v>25.375</v>
+        <v>27.53333333333333</v>
       </c>
       <c r="K321" t="n">
-        <v>5.2625</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="L321" t="n">
         <v>107.5787</v>
@@ -15986,22 +15986,22 @@
         <v>10257</v>
       </c>
       <c r="F331" t="n">
-        <v>15.02365579604173</v>
+        <v>16.6992411686328</v>
       </c>
       <c r="G331" t="n">
-        <v>5371</v>
+        <v>3282</v>
       </c>
       <c r="H331" t="n">
-        <v>9474</v>
+        <v>8543</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J331" t="n">
-        <v>25.1</v>
+        <v>27.28333333333333</v>
       </c>
       <c r="K331" t="n">
-        <v>5.6625</v>
+        <v>6.35</v>
       </c>
       <c r="L331" t="n">
         <v>108.1094</v>
@@ -16456,22 +16456,22 @@
         <v>7280</v>
       </c>
       <c r="F341" t="n">
-        <v>15.48014423076923</v>
+        <v>17.11820512820513</v>
       </c>
       <c r="G341" t="n">
-        <v>3318</v>
+        <v>1981</v>
       </c>
       <c r="H341" t="n">
-        <v>6555</v>
+        <v>5793</v>
       </c>
       <c r="I341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="n">
-        <v>25.1875</v>
+        <v>27.25</v>
       </c>
       <c r="K341" t="n">
-        <v>5.487500000000001</v>
+        <v>6.383333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>108.8036</v>
@@ -16926,22 +16926,22 @@
         <v>2799</v>
       </c>
       <c r="F351" t="n">
-        <v>14.99035816362987</v>
+        <v>16.71678575681791</v>
       </c>
       <c r="G351" t="n">
-        <v>1488</v>
+        <v>927</v>
       </c>
       <c r="H351" t="n">
-        <v>2580</v>
+        <v>2292</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J351" t="n">
-        <v>25.6875</v>
+        <v>27.91666666666666</v>
       </c>
       <c r="K351" t="n">
-        <v>6.337499999999999</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="L351" t="n">
         <v>107.988</v>
@@ -17396,22 +17396,22 @@
         <v>11579</v>
       </c>
       <c r="F361" t="n">
-        <v>16.22169984454616</v>
+        <v>17.97507700722572</v>
       </c>
       <c r="G361" t="n">
-        <v>3940</v>
+        <v>2083</v>
       </c>
       <c r="H361" t="n">
-        <v>10290</v>
+        <v>8369</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J361" t="n">
-        <v>26.1375</v>
+        <v>28.45</v>
       </c>
       <c r="K361" t="n">
-        <v>6.0375</v>
+        <v>6.85</v>
       </c>
       <c r="L361" t="n">
         <v>109.1863</v>
@@ -17866,22 +17866,22 @@
         <v>8745</v>
       </c>
       <c r="F371" t="n">
-        <v>14.66937392795884</v>
+        <v>16.38520678482942</v>
       </c>
       <c r="G371" t="n">
-        <v>5067</v>
+        <v>3215</v>
       </c>
       <c r="H371" t="n">
-        <v>8120</v>
+        <v>7431</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J371" t="n">
-        <v>25.55</v>
+        <v>27.8</v>
       </c>
       <c r="K371" t="n">
-        <v>6.4375</v>
+        <v>7.183333333333334</v>
       </c>
       <c r="L371" t="n">
         <v>108.036</v>
@@ -18336,22 +18336,22 @@
         <v>7042</v>
       </c>
       <c r="F381" t="n">
-        <v>14.6771602527691</v>
+        <v>16.28795086623118</v>
       </c>
       <c r="G381" t="n">
-        <v>3890</v>
+        <v>2659</v>
       </c>
       <c r="H381" t="n">
-        <v>6515</v>
+        <v>5882</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>24.6375</v>
+        <v>26.78333333333333</v>
       </c>
       <c r="K381" t="n">
-        <v>5.85</v>
+        <v>6.6</v>
       </c>
       <c r="L381" t="n">
         <v>109.3088</v>
@@ -18806,22 +18806,22 @@
         <v>12250</v>
       </c>
       <c r="F391" t="n">
-        <v>13.94588775510204</v>
+        <v>15.55568707482993</v>
       </c>
       <c r="G391" t="n">
-        <v>7897</v>
+        <v>5813</v>
       </c>
       <c r="H391" t="n">
-        <v>11473</v>
+        <v>10622</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="n">
-        <v>24.7875</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="K391" t="n">
-        <v>5.550000000000001</v>
+        <v>6.133333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>108.0838</v>
@@ -19276,22 +19276,22 @@
         <v>5892</v>
       </c>
       <c r="F401" t="n">
-        <v>15.69421673455533</v>
+        <v>17.39347703100249</v>
       </c>
       <c r="G401" t="n">
-        <v>2609</v>
+        <v>1719</v>
       </c>
       <c r="H401" t="n">
-        <v>5049</v>
+        <v>4300</v>
       </c>
       <c r="I401" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J401" t="n">
-        <v>25.85</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="K401" t="n">
-        <v>5.6125</v>
+        <v>6.55</v>
       </c>
       <c r="L401" t="n">
         <v>109.1927</v>
@@ -19746,22 +19746,22 @@
         <v>8440</v>
       </c>
       <c r="F411" t="n">
-        <v>16.18913210900474</v>
+        <v>17.95310821484992</v>
       </c>
       <c r="G411" t="n">
-        <v>3064</v>
+        <v>1607</v>
       </c>
       <c r="H411" t="n">
-        <v>7401</v>
+        <v>6165</v>
       </c>
       <c r="I411" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J411" t="n">
-        <v>25.1375</v>
+        <v>27.45</v>
       </c>
       <c r="K411" t="n">
-        <v>6.675</v>
+        <v>7.3</v>
       </c>
       <c r="L411" t="n">
         <v>108.4428</v>
@@ -20216,22 +20216,22 @@
         <v>5134</v>
       </c>
       <c r="F421" t="n">
-        <v>15.339696143358</v>
+        <v>17.05590183093105</v>
       </c>
       <c r="G421" t="n">
-        <v>2499</v>
+        <v>1599</v>
       </c>
       <c r="H421" t="n">
-        <v>4594</v>
+        <v>4053</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J421" t="n">
-        <v>25.0625</v>
+        <v>27.41666666666666</v>
       </c>
       <c r="K421" t="n">
-        <v>6.375</v>
+        <v>7.5</v>
       </c>
       <c r="L421" t="n">
         <v>106.9228</v>
@@ -20686,22 +20686,22 @@
         <v>4951</v>
       </c>
       <c r="F431" t="n">
-        <v>18.56731720864472</v>
+        <v>20.50929441863596</v>
       </c>
       <c r="G431" t="n">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="H431" t="n">
-        <v>3436</v>
+        <v>2067</v>
       </c>
       <c r="I431" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J431" t="n">
-        <v>25.075</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="K431" t="n">
-        <v>7.037500000000001</v>
+        <v>8.183333333333334</v>
       </c>
       <c r="L431" t="n">
         <v>106.652</v>
@@ -21156,22 +21156,22 @@
         <v>3832</v>
       </c>
       <c r="F441" t="n">
-        <v>14.69507763569937</v>
+        <v>16.33459899095337</v>
       </c>
       <c r="G441" t="n">
-        <v>2130</v>
+        <v>1469</v>
       </c>
       <c r="H441" t="n">
-        <v>3520</v>
+        <v>3172</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="n">
-        <v>24.75</v>
+        <v>27</v>
       </c>
       <c r="K441" t="n">
-        <v>5.9625</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>108.98</v>
@@ -21626,22 +21626,22 @@
         <v>4945</v>
       </c>
       <c r="F451" t="n">
-        <v>15.39370576339737</v>
+        <v>17.11220087630603</v>
       </c>
       <c r="G451" t="n">
-        <v>2311</v>
+        <v>1269</v>
       </c>
       <c r="H451" t="n">
-        <v>4599</v>
+        <v>4069</v>
       </c>
       <c r="I451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J451" t="n">
-        <v>25.075</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="K451" t="n">
-        <v>6.95</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="L451" t="n">
         <v>106.1257</v>
@@ -22096,22 +22096,22 @@
         <v>8058</v>
       </c>
       <c r="F461" t="n">
-        <v>15.6383144080417</v>
+        <v>17.35346032927939</v>
       </c>
       <c r="G461" t="n">
-        <v>3503</v>
+        <v>2014</v>
       </c>
       <c r="H461" t="n">
-        <v>7324</v>
+        <v>6314</v>
       </c>
       <c r="I461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" t="n">
-        <v>24.975</v>
+        <v>27.1</v>
       </c>
       <c r="K461" t="n">
-        <v>6.3125</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="L461" t="n">
         <v>108.0969</v>
@@ -22566,22 +22566,22 @@
         <v>14542</v>
       </c>
       <c r="F471" t="n">
-        <v>15.97644839086783</v>
+        <v>17.67489226607986</v>
       </c>
       <c r="G471" t="n">
-        <v>5916</v>
+        <v>3604</v>
       </c>
       <c r="H471" t="n">
-        <v>12488</v>
+        <v>10525</v>
       </c>
       <c r="I471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J471" t="n">
-        <v>25.675</v>
+        <v>27.96666666666667</v>
       </c>
       <c r="K471" t="n">
-        <v>6.5375</v>
+        <v>7.516666666666666</v>
       </c>
       <c r="L471" t="n">
         <v>107.1689</v>
@@ -23036,22 +23036,22 @@
         <v>6214</v>
       </c>
       <c r="F481" t="n">
-        <v>16.28547232056646</v>
+        <v>18.10717197725566</v>
       </c>
       <c r="G481" t="n">
-        <v>2052</v>
+        <v>956</v>
       </c>
       <c r="H481" t="n">
-        <v>5579</v>
+        <v>4578</v>
       </c>
       <c r="I481" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J481" t="n">
-        <v>25.3625</v>
+        <v>27.56666666666666</v>
       </c>
       <c r="K481" t="n">
-        <v>6.300000000000001</v>
+        <v>7.133333333333333</v>
       </c>
       <c r="L481" t="n">
         <v>106.1237</v>
@@ -23506,22 +23506,22 @@
         <v>7735</v>
       </c>
       <c r="F491" t="n">
-        <v>15.88740788623141</v>
+        <v>17.68251669898729</v>
       </c>
       <c r="G491" t="n">
-        <v>3077</v>
+        <v>1505</v>
       </c>
       <c r="H491" t="n">
-        <v>7047</v>
+        <v>5988</v>
       </c>
       <c r="I491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J491" t="n">
-        <v>24.8375</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="K491" t="n">
-        <v>6.649999999999999</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="L491" t="n">
         <v>105.7415</v>
@@ -23976,22 +23976,22 @@
         <v>10609</v>
       </c>
       <c r="F501" t="n">
-        <v>16.46514515977001</v>
+        <v>18.31323404656424</v>
       </c>
       <c r="G501" t="n">
-        <v>3236</v>
+        <v>1533</v>
       </c>
       <c r="H501" t="n">
-        <v>9386</v>
+        <v>7528</v>
       </c>
       <c r="I501" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J501" t="n">
-        <v>25.1375</v>
+        <v>27.45</v>
       </c>
       <c r="K501" t="n">
-        <v>5.2625</v>
+        <v>6.283333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>105.4306</v>
@@ -24446,22 +24446,22 @@
         <v>4587</v>
       </c>
       <c r="F511" t="n">
-        <v>16.93597122302158</v>
+        <v>18.68893249037134</v>
       </c>
       <c r="G511" t="n">
-        <v>1420</v>
+        <v>825</v>
       </c>
       <c r="H511" t="n">
-        <v>3590</v>
+        <v>2902</v>
       </c>
       <c r="I511" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J511" t="n">
-        <v>25.9</v>
+        <v>28.06666666666667</v>
       </c>
       <c r="K511" t="n">
-        <v>6.125</v>
+        <v>6.833333333333334</v>
       </c>
       <c r="L511" t="n">
         <v>107.0843</v>
@@ -24916,22 +24916,22 @@
         <v>6789</v>
       </c>
       <c r="F521" t="n">
-        <v>16.2061680659891</v>
+        <v>18.00259733883242</v>
       </c>
       <c r="G521" t="n">
-        <v>2414</v>
+        <v>1130</v>
       </c>
       <c r="H521" t="n">
-        <v>6072</v>
+        <v>5059</v>
       </c>
       <c r="I521" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J521" t="n">
-        <v>25.3125</v>
+        <v>27.75</v>
       </c>
       <c r="K521" t="n">
-        <v>7.699999999999999</v>
+        <v>8.866666666666667</v>
       </c>
       <c r="L521" t="n">
         <v>106.3637</v>
@@ -25386,22 +25386,22 @@
         <v>8596</v>
       </c>
       <c r="F531" t="n">
-        <v>15.15305956258725</v>
+        <v>16.90664650224911</v>
       </c>
       <c r="G531" t="n">
-        <v>4295</v>
+        <v>2504</v>
       </c>
       <c r="H531" t="n">
-        <v>8018</v>
+        <v>7061</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
       <c r="J531" t="n">
-        <v>24.65</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="K531" t="n">
-        <v>6.3375</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="L531" t="n">
         <v>105.0848</v>
@@ -25856,22 +25856,22 @@
         <v>6287</v>
       </c>
       <c r="F541" t="n">
-        <v>15.91448624145061</v>
+        <v>17.69797465669901</v>
       </c>
       <c r="G541" t="n">
-        <v>2551</v>
+        <v>1402</v>
       </c>
       <c r="H541" t="n">
-        <v>5562</v>
+        <v>4704</v>
       </c>
       <c r="I541" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J541" t="n">
-        <v>25.1875</v>
+        <v>27.33333333333334</v>
       </c>
       <c r="K541" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="L541" t="n">
         <v>105.7209</v>
@@ -26326,22 +26326,22 @@
         <v>6525</v>
       </c>
       <c r="F551" t="n">
-        <v>15.8673754789272</v>
+        <v>17.6632183908046</v>
       </c>
       <c r="G551" t="n">
-        <v>2596</v>
+        <v>1210</v>
       </c>
       <c r="H551" t="n">
-        <v>5995</v>
+        <v>5142</v>
       </c>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J551" t="n">
-        <v>24.875</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="K551" t="n">
-        <v>7.3375</v>
+        <v>8.65</v>
       </c>
       <c r="L551" t="n">
         <v>106.3771</v>
@@ -26796,22 +26796,22 @@
         <v>6177</v>
       </c>
       <c r="F561" t="n">
-        <v>16.3994131455399</v>
+        <v>18.24148184123901</v>
       </c>
       <c r="G561" t="n">
-        <v>1916</v>
+        <v>832</v>
       </c>
       <c r="H561" t="n">
-        <v>5553</v>
+        <v>4473</v>
       </c>
       <c r="I561" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J561" t="n">
-        <v>25.45</v>
+        <v>27.86666666666667</v>
       </c>
       <c r="K561" t="n">
-        <v>8.112500000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L561" t="n">
         <v>106.0055</v>
@@ -27266,22 +27266,22 @@
         <v>6481</v>
       </c>
       <c r="F571" t="n">
-        <v>14.13171964203055</v>
+        <v>15.80681479195597</v>
       </c>
       <c r="G571" t="n">
-        <v>4077</v>
+        <v>2778</v>
       </c>
       <c r="H571" t="n">
-        <v>6249</v>
+        <v>5781</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
       <c r="J571" t="n">
-        <v>24.5</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="K571" t="n">
-        <v>6.525</v>
+        <v>7.566666666666666</v>
       </c>
       <c r="L571" t="n">
         <v>106.3449</v>
@@ -27736,22 +27736,22 @@
         <v>6394</v>
       </c>
       <c r="F581" t="n">
-        <v>14.57007155145449</v>
+        <v>16.2702299030341</v>
       </c>
       <c r="G581" t="n">
-        <v>3655</v>
+        <v>2314</v>
       </c>
       <c r="H581" t="n">
-        <v>6098</v>
+        <v>5567</v>
       </c>
       <c r="I581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J581" t="n">
-        <v>25.7125</v>
+        <v>28.15</v>
       </c>
       <c r="K581" t="n">
-        <v>6.850000000000001</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="L581" t="n">
         <v>105.9803</v>
@@ -28206,22 +28206,22 @@
         <v>3507</v>
       </c>
       <c r="F591" t="n">
-        <v>16.32196678072427</v>
+        <v>18.14992396160061</v>
       </c>
       <c r="G591" t="n">
-        <v>1124</v>
+        <v>500</v>
       </c>
       <c r="H591" t="n">
-        <v>3198</v>
+        <v>2570</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
       <c r="J591" t="n">
-        <v>24.5875</v>
+        <v>26.65</v>
       </c>
       <c r="K591" t="n">
-        <v>6.8</v>
+        <v>7.466666666666666</v>
       </c>
       <c r="L591" t="n">
         <v>105.7245</v>
@@ -28676,22 +28676,22 @@
         <v>5655</v>
       </c>
       <c r="F601" t="n">
-        <v>14.75050839964633</v>
+        <v>16.50565870910699</v>
       </c>
       <c r="G601" t="n">
-        <v>3129</v>
+        <v>1866</v>
       </c>
       <c r="H601" t="n">
-        <v>5367</v>
+        <v>4879</v>
       </c>
       <c r="I601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J601" t="n">
-        <v>24.925</v>
+        <v>27.11666666666667</v>
       </c>
       <c r="K601" t="n">
-        <v>5.7125</v>
+        <v>6.816666666666666</v>
       </c>
       <c r="L601" t="n">
         <v>105.15</v>
@@ -29146,22 +29146,22 @@
         <v>4786</v>
       </c>
       <c r="F611" t="n">
-        <v>14.16976076055161</v>
+        <v>15.87458559687979</v>
       </c>
       <c r="G611" t="n">
-        <v>3005</v>
+        <v>1924</v>
       </c>
       <c r="H611" t="n">
-        <v>4633</v>
+        <v>4327</v>
       </c>
       <c r="I611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J611" t="n">
-        <v>25.6625</v>
+        <v>28.01666666666667</v>
       </c>
       <c r="K611" t="n">
-        <v>6.199999999999999</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="L611" t="n">
         <v>103.0235</v>
@@ -29616,22 +29616,22 @@
         <v>4078</v>
       </c>
       <c r="F621" t="n">
-        <v>14.12381069151545</v>
+        <v>15.81340526401831</v>
       </c>
       <c r="G621" t="n">
-        <v>2572</v>
+        <v>1745</v>
       </c>
       <c r="H621" t="n">
-        <v>3900</v>
+        <v>3607</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
       <c r="J621" t="n">
-        <v>24.4875</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="K621" t="n">
-        <v>5.512499999999999</v>
+        <v>6.283333333333333</v>
       </c>
       <c r="L621" t="n">
         <v>107.7148</v>
@@ -30086,22 +30086,22 @@
         <v>4244</v>
       </c>
       <c r="F631" t="n">
-        <v>14.25251531573987</v>
+        <v>15.98137763116557</v>
       </c>
       <c r="G631" t="n">
-        <v>2652</v>
+        <v>1683</v>
       </c>
       <c r="H631" t="n">
-        <v>4091</v>
+        <v>3800</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
       <c r="J631" t="n">
-        <v>24.225</v>
+        <v>26.2</v>
       </c>
       <c r="K631" t="n">
-        <v>6.6625</v>
+        <v>7.516666666666667</v>
       </c>
       <c r="L631" t="n">
         <v>105.5552</v>
@@ -30556,22 +30556,22 @@
         <v>58670</v>
       </c>
       <c r="F641" t="n">
-        <v>17.51596961820351</v>
+        <v>19.20555508209761</v>
       </c>
       <c r="G641" t="n">
-        <v>16075</v>
+        <v>9507</v>
       </c>
       <c r="H641" t="n">
-        <v>40769</v>
+        <v>32054</v>
       </c>
       <c r="I641" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J641" t="n">
-        <v>25.7625</v>
+        <v>28.05</v>
       </c>
       <c r="K641" t="n">
-        <v>5.575</v>
+        <v>6.683333333333333</v>
       </c>
       <c r="L641" t="n">
         <v>105.8342</v>
@@ -31026,22 +31026,22 @@
         <v>27845</v>
       </c>
       <c r="F651" t="n">
-        <v>18.140516699587</v>
+        <v>19.8992967019812</v>
       </c>
       <c r="G651" t="n">
-        <v>4584</v>
+        <v>2006</v>
       </c>
       <c r="H651" t="n">
-        <v>19248</v>
+        <v>13604</v>
       </c>
       <c r="I651" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J651" t="n">
-        <v>25.2375</v>
+        <v>27.58333333333333</v>
       </c>
       <c r="K651" t="n">
-        <v>5.3875</v>
+        <v>5.783333333333333</v>
       </c>
       <c r="L651" t="n">
         <v>106.6297</v>
@@ -31496,22 +31496,22 @@
         <v>12381</v>
       </c>
       <c r="F661" t="n">
-        <v>17.67408832081415</v>
+        <v>19.50352287106588</v>
       </c>
       <c r="G661" t="n">
-        <v>2931</v>
+        <v>1490</v>
       </c>
       <c r="H661" t="n">
-        <v>8821</v>
+        <v>6630</v>
       </c>
       <c r="I661" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J661" t="n">
-        <v>25.6</v>
+        <v>27.93333333333333</v>
       </c>
       <c r="K661" t="n">
-        <v>6.725</v>
+        <v>7.766666666666667</v>
       </c>
       <c r="L661" t="n">
         <v>106.686</v>
@@ -31966,22 +31966,22 @@
         <v>6019</v>
       </c>
       <c r="F671" t="n">
-        <v>16.79598147532813</v>
+        <v>18.4355014675749</v>
       </c>
       <c r="G671" t="n">
-        <v>1912</v>
+        <v>1122</v>
       </c>
       <c r="H671" t="n">
-        <v>4749</v>
+        <v>3858</v>
       </c>
       <c r="I671" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J671" t="n">
-        <v>25.5125</v>
+        <v>27.95</v>
       </c>
       <c r="K671" t="n">
-        <v>5.625</v>
+        <v>6.5</v>
       </c>
       <c r="L671" t="n">
         <v>108.2022</v>
@@ -32436,22 +32436,22 @@
         <v>5034</v>
       </c>
       <c r="F681" t="n">
-        <v>12.29713696861343</v>
+        <v>13.79701695139717</v>
       </c>
       <c r="G681" t="n">
-        <v>4082</v>
+        <v>3404</v>
       </c>
       <c r="H681" t="n">
-        <v>4866</v>
+        <v>4732</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
       <c r="J681" t="n">
-        <v>24.1875</v>
+        <v>26.25</v>
       </c>
       <c r="K681" t="n">
-        <v>4.75</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="L681" t="n">
         <v>104.715</v>
@@ -32906,22 +32906,22 @@
         <v>3596</v>
       </c>
       <c r="F691" t="n">
-        <v>13.41257994994438</v>
+        <v>15.04489710789766</v>
       </c>
       <c r="G691" t="n">
-        <v>2536</v>
+        <v>1952</v>
       </c>
       <c r="H691" t="n">
-        <v>3408</v>
+        <v>3213</v>
       </c>
       <c r="I691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J691" t="n">
-        <v>24.825</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="K691" t="n">
-        <v>5.9625</v>
+        <v>6.75</v>
       </c>
       <c r="L691" t="n">
         <v>106.2522</v>
@@ -33376,22 +33376,22 @@
         <v>2739</v>
       </c>
       <c r="F701" t="n">
-        <v>14.45680449069003</v>
+        <v>16.12860533041256</v>
       </c>
       <c r="G701" t="n">
-        <v>1599</v>
+        <v>1021</v>
       </c>
       <c r="H701" t="n">
-        <v>2658</v>
+        <v>2456</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
       <c r="J701" t="n">
-        <v>23.925</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="K701" t="n">
-        <v>6.2125</v>
+        <v>6.816666666666666</v>
       </c>
       <c r="L701" t="n">
         <v>103.273</v>
@@ -33846,22 +33846,22 @@
         <v>5414</v>
       </c>
       <c r="F711" t="n">
-        <v>15.58047885112671</v>
+        <v>17.34253478635636</v>
       </c>
       <c r="G711" t="n">
-        <v>2437</v>
+        <v>1452</v>
       </c>
       <c r="H711" t="n">
-        <v>4871</v>
+        <v>4228</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
       <c r="J711" t="n">
-        <v>24.7</v>
+        <v>26.96666666666667</v>
       </c>
       <c r="K711" t="n">
-        <v>6.7125</v>
+        <v>7.483333333333333</v>
       </c>
       <c r="L711" t="n">
         <v>103.9706</v>
@@ -34316,22 +34316,22 @@
         <v>6593</v>
       </c>
       <c r="F721" t="n">
-        <v>15.55309798270893</v>
+        <v>17.31245765711108</v>
       </c>
       <c r="G721" t="n">
-        <v>2956</v>
+        <v>1614</v>
       </c>
       <c r="H721" t="n">
-        <v>6068</v>
+        <v>5299</v>
       </c>
       <c r="I721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J721" t="n">
-        <v>24.9375</v>
+        <v>27.25</v>
       </c>
       <c r="K721" t="n">
-        <v>7.212499999999999</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="L721" t="n">
         <v>105.2352</v>
@@ -34786,22 +34786,22 @@
         <v>6175</v>
       </c>
       <c r="F731" t="n">
-        <v>14.44929149797571</v>
+        <v>16.15689608636977</v>
       </c>
       <c r="G731" t="n">
-        <v>3675</v>
+        <v>2467</v>
       </c>
       <c r="H731" t="n">
-        <v>5832</v>
+        <v>5290</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
       <c r="J731" t="n">
-        <v>24.7375</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="K731" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="L731" t="n">
         <v>106.7504</v>
@@ -35256,22 +35256,22 @@
         <v>2101</v>
       </c>
       <c r="F741" t="n">
-        <v>14.44222394098048</v>
+        <v>16.18763287323496</v>
       </c>
       <c r="G741" t="n">
-        <v>1265</v>
+        <v>823</v>
       </c>
       <c r="H741" t="n">
-        <v>1986</v>
+        <v>1803</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
       <c r="J741" t="n">
-        <v>24.0375</v>
+        <v>26.51666666666667</v>
       </c>
       <c r="K741" t="n">
-        <v>7.0625</v>
+        <v>8.083333333333332</v>
       </c>
       <c r="L741" t="n">
         <v>105.8391</v>
@@ -35726,22 +35726,22 @@
         <v>9557</v>
       </c>
       <c r="F751" t="n">
-        <v>15.29931856231035</v>
+        <v>16.98207073349377</v>
       </c>
       <c r="G751" t="n">
-        <v>4769</v>
+        <v>3006</v>
       </c>
       <c r="H751" t="n">
-        <v>8573</v>
+        <v>7537</v>
       </c>
       <c r="I751" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J751" t="n">
-        <v>26.15</v>
+        <v>28.4</v>
       </c>
       <c r="K751" t="n">
-        <v>6.175</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="L751" t="n">
         <v>105.8526</v>
@@ -36196,22 +36196,22 @@
         <v>5926</v>
       </c>
       <c r="F761" t="n">
-        <v>14.89650480931488</v>
+        <v>16.56321014737316</v>
       </c>
       <c r="G761" t="n">
-        <v>3279</v>
+        <v>2135</v>
       </c>
       <c r="H761" t="n">
-        <v>5431</v>
+        <v>4896</v>
       </c>
       <c r="I761" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J761" t="n">
-        <v>25.6625</v>
+        <v>28.01666666666667</v>
       </c>
       <c r="K761" t="n">
-        <v>6.4875</v>
+        <v>7.383333333333334</v>
       </c>
       <c r="L761" t="n">
         <v>104.7116</v>
@@ -36666,22 +36666,22 @@
         <v>9116</v>
       </c>
       <c r="F771" t="n">
-        <v>13.7641742540588</v>
+        <v>15.44235227438935</v>
       </c>
       <c r="G771" t="n">
-        <v>6247</v>
+        <v>4417</v>
       </c>
       <c r="H771" t="n">
-        <v>8802</v>
+        <v>8277</v>
       </c>
       <c r="I771" t="n">
         <v>0</v>
       </c>
       <c r="J771" t="n">
-        <v>24.425</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="K771" t="n">
-        <v>5.287500000000001</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="L771" t="n">
         <v>103.7289</v>
@@ -37136,22 +37136,22 @@
         <v>9708</v>
       </c>
       <c r="F781" t="n">
-        <v>16.91884528224145</v>
+        <v>18.77998214530971</v>
       </c>
       <c r="G781" t="n">
-        <v>2721</v>
+        <v>1254</v>
       </c>
       <c r="H781" t="n">
-        <v>7989</v>
+        <v>6233</v>
       </c>
       <c r="I781" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J781" t="n">
-        <v>25.85</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="K781" t="n">
-        <v>7.15</v>
+        <v>8.4</v>
       </c>
       <c r="L781" t="n">
         <v>105.2253</v>
@@ -37606,22 +37606,22 @@
         <v>6888</v>
       </c>
       <c r="F791" t="n">
-        <v>18.68862514518002</v>
+        <v>20.66085946573751</v>
       </c>
       <c r="G791" t="n">
-        <v>634</v>
+        <v>170</v>
       </c>
       <c r="H791" t="n">
-        <v>4675</v>
+        <v>2869</v>
       </c>
       <c r="I791" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J791" t="n">
-        <v>26</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="K791" t="n">
-        <v>5.862500000000001</v>
+        <v>6.883333333333333</v>
       </c>
       <c r="L791" t="n">
         <v>105.6038</v>
@@ -38076,22 +38076,22 @@
         <v>9872</v>
       </c>
       <c r="F801" t="n">
-        <v>15.89882749189627</v>
+        <v>17.59185237709346</v>
       </c>
       <c r="G801" t="n">
-        <v>4177</v>
+        <v>2677</v>
       </c>
       <c r="H801" t="n">
-        <v>8366</v>
+        <v>7053</v>
       </c>
       <c r="I801" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J801" t="n">
-        <v>25.275</v>
+        <v>27.56666666666667</v>
       </c>
       <c r="K801" t="n">
-        <v>5.3875</v>
+        <v>6.116666666666667</v>
       </c>
       <c r="L801" t="n">
         <v>107.0829</v>
@@ -38546,22 +38546,22 @@
         <v>12172</v>
       </c>
       <c r="F811" t="n">
-        <v>16.47547034176799</v>
+        <v>18.23909792967466</v>
       </c>
       <c r="G811" t="n">
-        <v>4130</v>
+        <v>2267</v>
       </c>
       <c r="H811" t="n">
-        <v>10247</v>
+        <v>8338</v>
       </c>
       <c r="I811" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J811" t="n">
-        <v>25.95</v>
+        <v>28.2</v>
       </c>
       <c r="K811" t="n">
-        <v>6.262499999999999</v>
+        <v>7.283333333333333</v>
       </c>
       <c r="L811" t="n">
         <v>106.199</v>
@@ -39016,22 +39016,22 @@
         <v>8381</v>
       </c>
       <c r="F821" t="n">
-        <v>17.42719395060256</v>
+        <v>19.24826989619377</v>
       </c>
       <c r="G821" t="n">
-        <v>2030</v>
+        <v>1016</v>
       </c>
       <c r="H821" t="n">
-        <v>6336</v>
+        <v>4834</v>
       </c>
       <c r="I821" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J821" t="n">
-        <v>25.5375</v>
+        <v>27.85</v>
       </c>
       <c r="K821" t="n">
-        <v>5.4375</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="L821" t="n">
         <v>106.0783</v>
@@ -39486,22 +39486,22 @@
         <v>10649</v>
       </c>
       <c r="F831" t="n">
-        <v>16.58885341346605</v>
+        <v>18.37063261026075</v>
       </c>
       <c r="G831" t="n">
-        <v>3521</v>
+        <v>1878</v>
       </c>
       <c r="H831" t="n">
-        <v>8813</v>
+        <v>7180</v>
       </c>
       <c r="I831" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J831" t="n">
-        <v>25.675</v>
+        <v>27.96666666666667</v>
       </c>
       <c r="K831" t="n">
-        <v>6.5125</v>
+        <v>7.5</v>
       </c>
       <c r="L831" t="n">
         <v>106.333</v>
@@ -39956,22 +39956,22 @@
         <v>7899</v>
       </c>
       <c r="F841" t="n">
-        <v>16.54022819344221</v>
+        <v>18.21888213697937</v>
       </c>
       <c r="G841" t="n">
-        <v>2478</v>
+        <v>1211</v>
       </c>
       <c r="H841" t="n">
-        <v>6811</v>
+        <v>5633</v>
       </c>
       <c r="I841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J841" t="n">
-        <v>25</v>
+        <v>27.33333333333334</v>
       </c>
       <c r="K841" t="n">
-        <v>6.0625</v>
+        <v>6.75</v>
       </c>
       <c r="L841" t="n">
         <v>106.0511</v>
@@ -40426,22 +40426,22 @@
         <v>7074</v>
       </c>
       <c r="F851" t="n">
-        <v>14.30375848176421</v>
+        <v>16.02980633305061</v>
       </c>
       <c r="G851" t="n">
-        <v>4366</v>
+        <v>2940</v>
       </c>
       <c r="H851" t="n">
-        <v>6636</v>
+        <v>6135</v>
       </c>
       <c r="I851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J851" t="n">
-        <v>24.8625</v>
+        <v>27.21666666666667</v>
       </c>
       <c r="K851" t="n">
-        <v>6.3</v>
+        <v>7.133333333333334</v>
       </c>
       <c r="L851" t="n">
         <v>105.3385</v>
@@ -40896,22 +40896,22 @@
         <v>4960</v>
       </c>
       <c r="F861" t="n">
-        <v>17.3108845766129</v>
+        <v>19.15222782258065</v>
       </c>
       <c r="G861" t="n">
-        <v>1134</v>
+        <v>500</v>
       </c>
       <c r="H861" t="n">
-        <v>3970</v>
+        <v>2988</v>
       </c>
       <c r="I861" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J861" t="n">
-        <v>25.475</v>
+        <v>27.76666666666667</v>
       </c>
       <c r="K861" t="n">
-        <v>8.3125</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="L861" t="n">
         <v>106.016</v>
@@ -41366,22 +41366,22 @@
         <v>8036</v>
       </c>
       <c r="F871" t="n">
-        <v>18.33375746640119</v>
+        <v>20.2376431060229</v>
       </c>
       <c r="G871" t="n">
-        <v>1203</v>
+        <v>485</v>
       </c>
       <c r="H871" t="n">
-        <v>5539</v>
+        <v>3744</v>
       </c>
       <c r="I871" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J871" t="n">
-        <v>26.1125</v>
+        <v>28.55</v>
       </c>
       <c r="K871" t="n">
-        <v>8.012499999999999</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="L871" t="n">
         <v>106.1621</v>
@@ -41836,22 +41836,22 @@
         <v>9327</v>
       </c>
       <c r="F881" t="n">
-        <v>16.81658223437332</v>
+        <v>18.62770630070404</v>
       </c>
       <c r="G881" t="n">
-        <v>2932</v>
+        <v>1400</v>
       </c>
       <c r="H881" t="n">
-        <v>7589</v>
+        <v>6163</v>
       </c>
       <c r="I881" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J881" t="n">
-        <v>25.4125</v>
+        <v>27.68333333333334</v>
       </c>
       <c r="K881" t="n">
-        <v>6.3375</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="L881" t="n">
         <v>106.335</v>
@@ -42306,22 +42306,22 @@
         <v>6088</v>
       </c>
       <c r="F891" t="n">
-        <v>17.78853482260184</v>
+        <v>19.68674989049496</v>
       </c>
       <c r="G891" t="n">
-        <v>1093</v>
+        <v>462</v>
       </c>
       <c r="H891" t="n">
-        <v>4623</v>
+        <v>3314</v>
       </c>
       <c r="I891" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J891" t="n">
-        <v>26</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="K891" t="n">
-        <v>6.925</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="L891" t="n">
         <v>105.974</v>
@@ -42776,22 +42776,22 @@
         <v>22650</v>
       </c>
       <c r="F901" t="n">
-        <v>15.40755408388521</v>
+        <v>17.14745842531273</v>
       </c>
       <c r="G901" t="n">
-        <v>10980</v>
+        <v>7152</v>
       </c>
       <c r="H901" t="n">
-        <v>19755</v>
+        <v>17244</v>
       </c>
       <c r="I901" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J901" t="n">
-        <v>26.075</v>
+        <v>28.36666666666667</v>
       </c>
       <c r="K901" t="n">
-        <v>5.7375</v>
+        <v>6.383333333333334</v>
       </c>
       <c r="L901" t="n">
         <v>105.7769</v>
@@ -43246,22 +43246,22 @@
         <v>23608</v>
       </c>
       <c r="F911" t="n">
-        <v>15.57034162148424</v>
+        <v>17.29586722015136</v>
       </c>
       <c r="G911" t="n">
-        <v>10896</v>
+        <v>6490</v>
       </c>
       <c r="H911" t="n">
-        <v>20843</v>
+        <v>18164</v>
       </c>
       <c r="I911" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J911" t="n">
-        <v>25.7375</v>
+        <v>28.05</v>
       </c>
       <c r="K911" t="n">
-        <v>5.775</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="L911" t="n">
         <v>105.693</v>
@@ -43716,22 +43716,22 @@
         <v>9933</v>
       </c>
       <c r="F921" t="n">
-        <v>16.78278591563475</v>
+        <v>18.60763951810464</v>
       </c>
       <c r="G921" t="n">
-        <v>2871</v>
+        <v>1257</v>
       </c>
       <c r="H921" t="n">
-        <v>8362</v>
+        <v>6684</v>
       </c>
       <c r="I921" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J921" t="n">
-        <v>25.3625</v>
+        <v>27.55</v>
       </c>
       <c r="K921" t="n">
-        <v>6.2125</v>
+        <v>7.15</v>
       </c>
       <c r="L921" t="n">
         <v>105.9063</v>
@@ -44186,22 +44186,22 @@
         <v>8285</v>
       </c>
       <c r="F931" t="n">
-        <v>15.25860742305371</v>
+        <v>16.94537316435325</v>
       </c>
       <c r="G931" t="n">
-        <v>4041</v>
+        <v>2326</v>
       </c>
       <c r="H931" t="n">
-        <v>7676</v>
+        <v>6868</v>
       </c>
       <c r="I931" t="n">
         <v>0</v>
       </c>
       <c r="J931" t="n">
-        <v>24.4875</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="K931" t="n">
-        <v>6.675</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="L931" t="n">
         <v>106.6291</v>
@@ -44656,22 +44656,22 @@
         <v>5346</v>
       </c>
       <c r="F941" t="n">
-        <v>14.50525392817059</v>
+        <v>16.13205823668787</v>
       </c>
       <c r="G941" t="n">
-        <v>3168</v>
+        <v>2201</v>
       </c>
       <c r="H941" t="n">
-        <v>4913</v>
+        <v>4466</v>
       </c>
       <c r="I941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J941" t="n">
-        <v>24.95</v>
+        <v>27.2</v>
       </c>
       <c r="K941" t="n">
-        <v>4.8125</v>
+        <v>5.416666666666666</v>
       </c>
       <c r="L941" t="n">
         <v>107.2022</v>
@@ -45126,22 +45126,22 @@
         <v>8310</v>
       </c>
       <c r="F951" t="n">
-        <v>15.58423886883273</v>
+        <v>17.25442037705576</v>
       </c>
       <c r="G951" t="n">
-        <v>3873</v>
+        <v>2409</v>
       </c>
       <c r="H951" t="n">
-        <v>7284</v>
+        <v>6353</v>
       </c>
       <c r="I951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J951" t="n">
-        <v>24.9875</v>
+        <v>27.05</v>
       </c>
       <c r="K951" t="n">
-        <v>6.949999999999999</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="L951" t="n">
         <v>107.5787</v>
@@ -45596,22 +45596,22 @@
         <v>10041</v>
       </c>
       <c r="F961" t="n">
-        <v>14.91528856687581</v>
+        <v>16.53218636921953</v>
       </c>
       <c r="G961" t="n">
-        <v>5471</v>
+        <v>3465</v>
       </c>
       <c r="H961" t="n">
-        <v>9271</v>
+        <v>8437</v>
       </c>
       <c r="I961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J961" t="n">
-        <v>25.0375</v>
+        <v>27.18333333333334</v>
       </c>
       <c r="K961" t="n">
-        <v>6.112500000000001</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="L961" t="n">
         <v>108.1094</v>
@@ -46066,22 +46066,22 @@
         <v>7412</v>
       </c>
       <c r="F971" t="n">
-        <v>15.40883870750135</v>
+        <v>16.98139278647239</v>
       </c>
       <c r="G971" t="n">
-        <v>3439</v>
+        <v>2111</v>
       </c>
       <c r="H971" t="n">
-        <v>6750</v>
+        <v>6019</v>
       </c>
       <c r="I971" t="n">
         <v>0</v>
       </c>
       <c r="J971" t="n">
-        <v>24.9375</v>
+        <v>26.91666666666667</v>
       </c>
       <c r="K971" t="n">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="L971" t="n">
         <v>108.8036</v>
@@ -46536,22 +46536,22 @@
         <v>3226</v>
       </c>
       <c r="F981" t="n">
-        <v>14.78917777433354</v>
+        <v>16.45570882413722</v>
       </c>
       <c r="G981" t="n">
-        <v>1806</v>
+        <v>1159</v>
       </c>
       <c r="H981" t="n">
-        <v>2982</v>
+        <v>2708</v>
       </c>
       <c r="I981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J981" t="n">
-        <v>24.825</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="K981" t="n">
-        <v>6.8875</v>
+        <v>7.783333333333334</v>
       </c>
       <c r="L981" t="n">
         <v>107.988</v>
@@ -47006,22 +47006,22 @@
         <v>11320</v>
       </c>
       <c r="F991" t="n">
-        <v>16.1146621024735</v>
+        <v>17.79980270906949</v>
       </c>
       <c r="G991" t="n">
-        <v>4039</v>
+        <v>2229</v>
       </c>
       <c r="H991" t="n">
-        <v>10084</v>
+        <v>8403</v>
       </c>
       <c r="I991" t="n">
         <v>0</v>
       </c>
       <c r="J991" t="n">
-        <v>24.7625</v>
+        <v>26.95</v>
       </c>
       <c r="K991" t="n">
-        <v>6.4375</v>
+        <v>7.25</v>
       </c>
       <c r="L991" t="n">
         <v>109.1863</v>
@@ -47476,22 +47476,22 @@
         <v>9583</v>
       </c>
       <c r="F1001" t="n">
-        <v>14.26910936032558</v>
+        <v>15.88916136213433</v>
       </c>
       <c r="G1001" t="n">
-        <v>5980</v>
+        <v>4192</v>
       </c>
       <c r="H1001" t="n">
-        <v>8947</v>
+        <v>8293</v>
       </c>
       <c r="I1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1001" t="n">
-        <v>24.8125</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="K1001" t="n">
-        <v>5.725</v>
+        <v>6.416666666666666</v>
       </c>
       <c r="L1001" t="n">
         <v>108.036</v>
@@ -47946,22 +47946,22 @@
         <v>6826</v>
       </c>
       <c r="F1011" t="n">
-        <v>14.92419242601817</v>
+        <v>16.54085115733958</v>
       </c>
       <c r="G1011" t="n">
-        <v>3591</v>
+        <v>2381</v>
       </c>
       <c r="H1011" t="n">
-        <v>6305</v>
+        <v>5630</v>
       </c>
       <c r="I1011" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1011" t="n">
-        <v>24.825</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="K1011" t="n">
-        <v>5.962499999999999</v>
+        <v>6.716666666666666</v>
       </c>
       <c r="L1011" t="n">
         <v>109.3088</v>
@@ -48416,22 +48416,22 @@
         <v>12722</v>
       </c>
       <c r="F1021" t="n">
-        <v>13.93735949536236</v>
+        <v>15.51425221401247</v>
       </c>
       <c r="G1021" t="n">
-        <v>8239</v>
+        <v>6179</v>
       </c>
       <c r="H1021" t="n">
-        <v>11927</v>
+        <v>11062</v>
       </c>
       <c r="I1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1021" t="n">
-        <v>24.9125</v>
+        <v>27.35</v>
       </c>
       <c r="K1021" t="n">
-        <v>5.2875</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="L1021" t="n">
         <v>108.0838</v>
@@ -48886,22 +48886,22 @@
         <v>6049</v>
       </c>
       <c r="F1031" t="n">
-        <v>15.65168209621425</v>
+        <v>17.29485314377032</v>
       </c>
       <c r="G1031" t="n">
-        <v>2686</v>
+        <v>1790</v>
       </c>
       <c r="H1031" t="n">
-        <v>5240</v>
+        <v>4496</v>
       </c>
       <c r="I1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1031" t="n">
-        <v>25.0875</v>
+        <v>27.36666666666666</v>
       </c>
       <c r="K1031" t="n">
-        <v>6.1</v>
+        <v>7.083333333333334</v>
       </c>
       <c r="L1031" t="n">
         <v>109.1927</v>
@@ -49356,22 +49356,22 @@
         <v>8672</v>
       </c>
       <c r="F1041" t="n">
-        <v>16.19708544741697</v>
+        <v>17.91026675891759</v>
       </c>
       <c r="G1041" t="n">
-        <v>3102</v>
+        <v>1613</v>
       </c>
       <c r="H1041" t="n">
-        <v>7700</v>
+        <v>6398</v>
       </c>
       <c r="I1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1041" t="n">
-        <v>25.275</v>
+        <v>27.56666666666667</v>
       </c>
       <c r="K1041" t="n">
-        <v>7.025</v>
+        <v>7.9</v>
       </c>
       <c r="L1041" t="n">
         <v>108.4428</v>
@@ -49826,22 +49826,22 @@
         <v>5637</v>
       </c>
       <c r="F1051" t="n">
-        <v>15.83627372715984</v>
+        <v>17.55987818579623</v>
       </c>
       <c r="G1051" t="n">
-        <v>2343</v>
+        <v>1298</v>
       </c>
       <c r="H1051" t="n">
-        <v>5023</v>
+        <v>4322</v>
       </c>
       <c r="I1051" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1051" t="n">
-        <v>25.2</v>
+        <v>27.53333333333333</v>
       </c>
       <c r="K1051" t="n">
-        <v>6.0125</v>
+        <v>6.95</v>
       </c>
       <c r="L1051" t="n">
         <v>106.9228</v>
@@ -50296,22 +50296,22 @@
         <v>5108</v>
       </c>
       <c r="F1061" t="n">
-        <v>18.8224476311668</v>
+        <v>20.72110741320804</v>
       </c>
       <c r="G1061" t="n">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="H1061" t="n">
-        <v>3397</v>
+        <v>1925</v>
       </c>
       <c r="I1061" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1061" t="n">
-        <v>24.95</v>
+        <v>27.3</v>
       </c>
       <c r="K1061" t="n">
-        <v>7.8</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="L1061" t="n">
         <v>106.652</v>
@@ -50766,22 +50766,22 @@
         <v>3773</v>
       </c>
       <c r="F1071" t="n">
-        <v>14.66366949377153</v>
+        <v>16.28082869511441</v>
       </c>
       <c r="G1071" t="n">
-        <v>2172</v>
+        <v>1442</v>
       </c>
       <c r="H1071" t="n">
-        <v>3493</v>
+        <v>3159</v>
       </c>
       <c r="I1071" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1071" t="n">
-        <v>24.8</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="K1071" t="n">
-        <v>6.1125</v>
+        <v>6.883333333333334</v>
       </c>
       <c r="L1071" t="n">
         <v>108.98</v>
@@ -51236,22 +51236,22 @@
         <v>5377</v>
       </c>
       <c r="F1081" t="n">
-        <v>15.48084666170727</v>
+        <v>17.1776610253549</v>
       </c>
       <c r="G1081" t="n">
-        <v>2404</v>
+        <v>1323</v>
       </c>
       <c r="H1081" t="n">
-        <v>5025</v>
+        <v>4372</v>
       </c>
       <c r="I1081" t="n">
         <v>0</v>
       </c>
       <c r="J1081" t="n">
-        <v>24.475</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="K1081" t="n">
-        <v>6.1625</v>
+        <v>7.016666666666666</v>
       </c>
       <c r="L1081" t="n">
         <v>106.1257</v>
@@ -51706,22 +51706,22 @@
         <v>8280</v>
       </c>
       <c r="F1091" t="n">
-        <v>15.66471920289855</v>
+        <v>17.35295893719807</v>
       </c>
       <c r="G1091" t="n">
-        <v>3508</v>
+        <v>1985</v>
       </c>
       <c r="H1091" t="n">
-        <v>7577</v>
+        <v>6514</v>
       </c>
       <c r="I1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1091" t="n">
-        <v>25.55</v>
+        <v>27.8</v>
       </c>
       <c r="K1091" t="n">
-        <v>6.3125</v>
+        <v>6.75</v>
       </c>
       <c r="L1091" t="n">
         <v>108.0969</v>
@@ -52176,22 +52176,22 @@
         <v>14908</v>
       </c>
       <c r="F1101" t="n">
-        <v>16.14482828011806</v>
+        <v>17.80477595921653</v>
       </c>
       <c r="G1101" t="n">
-        <v>5635</v>
+        <v>3408</v>
       </c>
       <c r="H1101" t="n">
-        <v>12830</v>
+        <v>10660</v>
       </c>
       <c r="I1101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1101" t="n">
-        <v>25.8625</v>
+        <v>28.21666666666667</v>
       </c>
       <c r="K1101" t="n">
-        <v>6.0625</v>
+        <v>6.783333333333333</v>
       </c>
       <c r="L1101" t="n">
         <v>107.1689</v>
@@ -52646,22 +52646,22 @@
         <v>6534</v>
       </c>
       <c r="F1111" t="n">
-        <v>15.85507154882155</v>
+        <v>17.596854912764</v>
       </c>
       <c r="G1111" t="n">
-        <v>2621</v>
+        <v>1332</v>
       </c>
       <c r="H1111" t="n">
-        <v>5994</v>
+        <v>5102</v>
       </c>
       <c r="I1111" t="n">
         <v>0</v>
       </c>
       <c r="J1111" t="n">
-        <v>24.625</v>
+        <v>26.83333333333334</v>
       </c>
       <c r="K1111" t="n">
-        <v>7.5875</v>
+        <v>8.65</v>
       </c>
       <c r="L1111" t="n">
         <v>106.1237</v>
@@ -53116,22 +53116,22 @@
         <v>7977</v>
       </c>
       <c r="F1121" t="n">
-        <v>15.78982073461201</v>
+        <v>17.51377710918892</v>
       </c>
       <c r="G1121" t="n">
-        <v>3231</v>
+        <v>1678</v>
       </c>
       <c r="H1121" t="n">
-        <v>7342</v>
+        <v>6248</v>
       </c>
       <c r="I1121" t="n">
         <v>0</v>
       </c>
       <c r="J1121" t="n">
-        <v>24.5875</v>
+        <v>26.65</v>
       </c>
       <c r="K1121" t="n">
-        <v>6.65</v>
+        <v>7.4</v>
       </c>
       <c r="L1121" t="n">
         <v>105.7415</v>
@@ -53586,22 +53586,22 @@
         <v>11075</v>
       </c>
       <c r="F1131" t="n">
-        <v>16.62422911963882</v>
+        <v>18.44048006019564</v>
       </c>
       <c r="G1131" t="n">
-        <v>3196</v>
+        <v>1422</v>
       </c>
       <c r="H1131" t="n">
-        <v>9717</v>
+        <v>7679</v>
       </c>
       <c r="I1131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1131" t="n">
-        <v>25.45</v>
+        <v>27.86666666666667</v>
       </c>
       <c r="K1131" t="n">
-        <v>7.4125</v>
+        <v>8.35</v>
       </c>
       <c r="L1131" t="n">
         <v>105.4306</v>
@@ -54056,22 +54056,22 @@
         <v>4785</v>
       </c>
       <c r="F1141" t="n">
-        <v>17.25827847439916</v>
+        <v>18.99893068617207</v>
       </c>
       <c r="G1141" t="n">
-        <v>1242</v>
+        <v>638</v>
       </c>
       <c r="H1141" t="n">
-        <v>3702</v>
+        <v>2897</v>
       </c>
       <c r="I1141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J1141" t="n">
-        <v>25.475</v>
+        <v>27.76666666666667</v>
       </c>
       <c r="K1141" t="n">
-        <v>5.4875</v>
+        <v>6.05</v>
       </c>
       <c r="L1141" t="n">
         <v>107.0843</v>
@@ -54526,22 +54526,22 @@
         <v>7561</v>
       </c>
       <c r="F1151" t="n">
-        <v>16.19568178812326</v>
+        <v>17.94583608870079</v>
       </c>
       <c r="G1151" t="n">
-        <v>2719</v>
+        <v>1299</v>
       </c>
       <c r="H1151" t="n">
-        <v>6748</v>
+        <v>5626</v>
       </c>
       <c r="I1151" t="n">
         <v>0</v>
       </c>
       <c r="J1151" t="n">
-        <v>24.55</v>
+        <v>26.8</v>
       </c>
       <c r="K1151" t="n">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="L1151" t="n">
         <v>106.3637</v>
@@ -54996,22 +54996,22 @@
         <v>8572</v>
       </c>
       <c r="F1161" t="n">
-        <v>15.27867475501633</v>
+        <v>16.99807123969513</v>
       </c>
       <c r="G1161" t="n">
-        <v>4110</v>
+        <v>2391</v>
       </c>
       <c r="H1161" t="n">
-        <v>7969</v>
+        <v>7002</v>
       </c>
       <c r="I1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1161" t="n">
-        <v>25.0125</v>
+        <v>27.28333333333333</v>
       </c>
       <c r="K1161" t="n">
-        <v>6.85</v>
+        <v>7.8</v>
       </c>
       <c r="L1161" t="n">
         <v>105.0848</v>
@@ -55466,22 +55466,22 @@
         <v>6347</v>
       </c>
       <c r="F1171" t="n">
-        <v>15.86395344257129</v>
+        <v>17.58845911454231</v>
       </c>
       <c r="G1171" t="n">
-        <v>2607</v>
+        <v>1485</v>
       </c>
       <c r="H1171" t="n">
-        <v>5592</v>
+        <v>4762</v>
       </c>
       <c r="I1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1171" t="n">
-        <v>24.9625</v>
+        <v>27.15</v>
       </c>
       <c r="K1171" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="L1171" t="n">
         <v>105.7209</v>
@@ -55936,22 +55936,22 @@
         <v>6610</v>
       </c>
       <c r="F1181" t="n">
-        <v>15.69461232980333</v>
+        <v>17.42997226424609</v>
       </c>
       <c r="G1181" t="n">
-        <v>2786</v>
+        <v>1397</v>
       </c>
       <c r="H1181" t="n">
-        <v>6155</v>
+        <v>5317</v>
       </c>
       <c r="I1181" t="n">
         <v>0</v>
       </c>
       <c r="J1181" t="n">
-        <v>24.4875</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="K1181" t="n">
-        <v>7.075</v>
+        <v>8.366666666666667</v>
       </c>
       <c r="L1181" t="n">
         <v>106.3771</v>
@@ -56406,22 +56406,22 @@
         <v>6039</v>
       </c>
       <c r="F1191" t="n">
-        <v>16.59324598443451</v>
+        <v>18.40142683667274</v>
       </c>
       <c r="G1191" t="n">
-        <v>1655</v>
+        <v>641</v>
       </c>
       <c r="H1191" t="n">
-        <v>5428</v>
+        <v>4307</v>
       </c>
       <c r="I1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1191" t="n">
-        <v>24.8875</v>
+        <v>27.11666666666667</v>
       </c>
       <c r="K1191" t="n">
-        <v>6.875</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="L1191" t="n">
         <v>106.0055</v>
@@ -56876,22 +56876,22 @@
         <v>6252</v>
       </c>
       <c r="F1201" t="n">
-        <v>13.91339171465131</v>
+        <v>15.53511942844956</v>
       </c>
       <c r="G1201" t="n">
-        <v>4147</v>
+        <v>2899</v>
       </c>
       <c r="H1201" t="n">
-        <v>6031</v>
+        <v>5631</v>
       </c>
       <c r="I1201" t="n">
         <v>0</v>
       </c>
       <c r="J1201" t="n">
-        <v>24.4375</v>
+        <v>26.68333333333334</v>
       </c>
       <c r="K1201" t="n">
-        <v>6.55</v>
+        <v>7.566666666666666</v>
       </c>
       <c r="L1201" t="n">
         <v>106.3449</v>
@@ -57346,22 +57346,22 @@
         <v>6466</v>
       </c>
       <c r="F1211" t="n">
-        <v>14.44354508196721</v>
+        <v>16.08740334055057</v>
       </c>
       <c r="G1211" t="n">
-        <v>3810</v>
+        <v>2511</v>
       </c>
       <c r="H1211" t="n">
-        <v>6205</v>
+        <v>5692</v>
       </c>
       <c r="I1211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1211" t="n">
-        <v>24.95</v>
+        <v>27.2</v>
       </c>
       <c r="K1211" t="n">
-        <v>7.15</v>
+        <v>8.016666666666667</v>
       </c>
       <c r="L1211" t="n">
         <v>105.9803</v>
@@ -57816,22 +57816,22 @@
         <v>3385</v>
       </c>
       <c r="F1221" t="n">
-        <v>15.99337518463811</v>
+        <v>17.76229443623831</v>
       </c>
       <c r="G1221" t="n">
-        <v>1266</v>
+        <v>590</v>
       </c>
       <c r="H1221" t="n">
-        <v>3117</v>
+        <v>2640</v>
       </c>
       <c r="I1221" t="n">
         <v>0</v>
       </c>
       <c r="J1221" t="n">
-        <v>24.4</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="K1221" t="n">
-        <v>8.125</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="L1221" t="n">
         <v>105.7245</v>
@@ -58286,22 +58286,22 @@
         <v>5039</v>
       </c>
       <c r="F1231" t="n">
-        <v>14.88678557253423</v>
+        <v>16.62180657537871</v>
       </c>
       <c r="G1231" t="n">
-        <v>2681</v>
+        <v>1630</v>
       </c>
       <c r="H1231" t="n">
-        <v>4779</v>
+        <v>4257</v>
       </c>
       <c r="I1231" t="n">
         <v>0</v>
       </c>
       <c r="J1231" t="n">
-        <v>24.4875</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="K1231" t="n">
-        <v>7.1625</v>
+        <v>8.35</v>
       </c>
       <c r="L1231" t="n">
         <v>105.15</v>
@@ -58756,22 +58756,22 @@
         <v>5133</v>
       </c>
       <c r="F1241" t="n">
-        <v>13.59392655367232</v>
+        <v>15.21959218131047</v>
       </c>
       <c r="G1241" t="n">
-        <v>3599</v>
+        <v>2529</v>
       </c>
       <c r="H1241" t="n">
-        <v>4981</v>
+        <v>4758</v>
       </c>
       <c r="I1241" t="n">
         <v>0</v>
       </c>
       <c r="J1241" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1241" t="n">
-        <v>5.4375</v>
+        <v>6.25</v>
       </c>
       <c r="L1241" t="n">
         <v>103.0235</v>
@@ -59226,22 +59226,22 @@
         <v>4444</v>
       </c>
       <c r="F1251" t="n">
-        <v>13.9382453870387</v>
+        <v>15.58605235523553</v>
       </c>
       <c r="G1251" t="n">
-        <v>2911</v>
+        <v>2049</v>
       </c>
       <c r="H1251" t="n">
-        <v>4258</v>
+        <v>3988</v>
       </c>
       <c r="I1251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1251" t="n">
-        <v>25.2375</v>
+        <v>27.38333333333333</v>
       </c>
       <c r="K1251" t="n">
-        <v>5.887499999999999</v>
+        <v>6.783333333333333</v>
       </c>
       <c r="L1251" t="n">
         <v>107.7148</v>
@@ -59696,22 +59696,22 @@
         <v>4419</v>
       </c>
       <c r="F1261" t="n">
-        <v>14.33173794976239</v>
+        <v>16.01988383495512</v>
       </c>
       <c r="G1261" t="n">
-        <v>2687</v>
+        <v>1708</v>
       </c>
       <c r="H1261" t="n">
-        <v>4259</v>
+        <v>3964</v>
       </c>
       <c r="I1261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1261" t="n">
-        <v>25.85</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="K1261" t="n">
-        <v>6.125</v>
+        <v>6.5</v>
       </c>
       <c r="L1261" t="n">
         <v>105.5552</v>
